--- a/ArizonaExtensions/MetaEdOutput/Documentation/DataDictionary/SqlDataDictionary.xlsx
+++ b/ArizonaExtensions/MetaEdOutput/Documentation/DataDictionary/SqlDataDictionary.xlsx
@@ -403,7 +403,7 @@
         <v>AbsenceAmountDescriptor</v>
       </c>
       <c r="B2" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C2" t="str" xml:space="preserve">
         <v xml:space="preserve">Absence Amounts must be less than or equal to the  Student Membership_x000d_
@@ -921,7 +921,7 @@
         <v>CalendarDateTrackEvent</v>
       </c>
       <c r="B48" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C48" t="str">
         <v>The calendar track event associated with a calendar date.</v>
@@ -1266,7 +1266,7 @@
         <v>CourseEntryDescriptor</v>
       </c>
       <c r="B79" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C79" t="str" xml:space="preserve">
         <v xml:space="preserve">The way the student entered this course, either as a_x000d_
@@ -1279,7 +1279,7 @@
         <v>CourseExitDescriptor</v>
       </c>
       <c r="B80" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C80" t="str">
         <v>The type of exit the student had from this course section.</v>
@@ -1389,7 +1389,7 @@
         <v>CourseOfferingCourseSchedule</v>
       </c>
       <c r="B90" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C90" t="str">
         <v>CourseSchedule for given course</v>
@@ -1411,7 +1411,7 @@
         <v>CourseOfferingExtension</v>
       </c>
       <c r="B92" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C92" t="str">
         <v/>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>EndOfCourseAssessmentCodeTypeDescriptor</v>
+        <v>EndOfCourseAssessmentCodeDescriptor</v>
       </c>
       <c r="B147" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C147" t="str">
         <v>Submitted for courses that end with Assessment testing</v>
@@ -2060,7 +2060,7 @@
         <v>ExitWithdrawReasonDescriptor</v>
       </c>
       <c r="B151" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C151" t="str" xml:space="preserve">
         <v xml:space="preserve">Withdrawal Reasons are a secondary reason for the withdrawal (the_x000d_
@@ -2988,7 +2988,7 @@
         <v>MembershipFTEDescriptor</v>
       </c>
       <c r="B235" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C235" t="str">
         <v>This descriptor describes the full-time equivalency codes</v>
@@ -2999,7 +2999,7 @@
         <v>MembershipResponsibilityDescriptor</v>
       </c>
       <c r="B236" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C236" t="str">
         <v>This descriptor defines types of responsibility a local education agency may have for a student school association(e.g., funding).</v>
@@ -3010,7 +3010,7 @@
         <v>MembershipTypeDescriptor</v>
       </c>
       <c r="B237" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C237" t="str" xml:space="preserve">
         <v xml:space="preserve">Membership Type identifies whether a school has primary responsibility_x000d_
@@ -3057,7 +3057,7 @@
         <v>MonthDescriptor</v>
       </c>
       <c r="B241" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C241" t="str">
         <v>The month number descriptor</v>
@@ -3101,7 +3101,7 @@
         <v>NumberOfInstructionalDaysInWeekDescriptor</v>
       </c>
       <c r="B245" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C245" t="str">
         <v>This descriptor defines the number of instructional days for a week in calendar track (e.g., three days per week, fours days per week, five days per week).</v>
@@ -3489,7 +3489,7 @@
         <v>PrimaryNightTimeResidenceDescriptor</v>
       </c>
       <c r="B280" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C280" t="str" xml:space="preserve">
         <v xml:space="preserve">The Primary Nighttime residence is a field associated with students_x000d_
@@ -4068,7 +4068,7 @@
         <v>SectionCourseCharacteristic</v>
       </c>
       <c r="B331" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C331" t="str">
         <v>A collection of course level characteristics for a section</v>
@@ -4079,7 +4079,7 @@
         <v>SectionExtension</v>
       </c>
       <c r="B332" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C332" t="str">
         <v/>
@@ -4090,7 +4090,7 @@
         <v>SectionExternalProviderTeacher</v>
       </c>
       <c r="B333" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C333" t="str">
         <v>A collection fo external teachers assigned to a section</v>
@@ -4101,7 +4101,7 @@
         <v>SectionGradeLevel</v>
       </c>
       <c r="B334" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C334" t="str">
         <v>The grade level associated with the section.</v>
@@ -4178,7 +4178,7 @@
         <v>SessionExtension</v>
       </c>
       <c r="B341" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C341" t="str">
         <v/>
@@ -4200,7 +4200,7 @@
         <v>SessionTypeDescriptor</v>
       </c>
       <c r="B343" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C343" t="str" xml:space="preserve">
         <v xml:space="preserve">The Session Type is a code indicating whether the session in which_x000d_
@@ -4246,7 +4246,7 @@
         <v>SpecialEnrollmentDescriptor</v>
       </c>
       <c r="B347" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C347" t="str">
         <v>This descriptor describes special enrollment codes</v>
@@ -4973,7 +4973,7 @@
         <v>StudentDropOutRecoveryProgramAssociation</v>
       </c>
       <c r="B412" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C412" t="str">
         <v/>
@@ -4984,7 +4984,7 @@
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
       </c>
       <c r="B413" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C413" t="str">
         <v/>
@@ -5227,7 +5227,7 @@
         <v>StudentExtension</v>
       </c>
       <c r="B435" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C435" t="str">
         <v/>
@@ -5414,7 +5414,7 @@
         <v>StudentNeed</v>
       </c>
       <c r="B452" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C452" t="str">
         <v>This entity represents a need for a student</v>
@@ -5425,7 +5425,7 @@
         <v>StudentNeedCategoryDescriptor</v>
       </c>
       <c r="B453" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C453" t="str">
         <v>This descriptor defines a category of a student need.</v>
@@ -5436,7 +5436,7 @@
         <v>StudentNeedDescriptor</v>
       </c>
       <c r="B454" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C454" t="str">
         <v>This descriptor defines a characteristic of a student need</v>
@@ -5546,7 +5546,7 @@
         <v>StudentProgramAttendanceEventTimeLog</v>
       </c>
       <c r="B464" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C464" t="str">
         <v>This event entity adds the time component to a student program attendance participating</v>
@@ -5579,7 +5579,7 @@
         <v>StudentSchoolAssociationExtension</v>
       </c>
       <c r="B467" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C467" t="str">
         <v/>
@@ -5590,7 +5590,7 @@
         <v>StudentSchoolAssociationLocalEducationAgency</v>
       </c>
       <c r="B468" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C468" t="str">
         <v>This association indicates any relationship between a student school association and a Local Education Agency</v>
@@ -5601,7 +5601,7 @@
         <v>StudentSchoolAssociationMembershipFTE</v>
       </c>
       <c r="B469" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C469" t="str">
         <v>This association represents the full-time equivalency of the student school association</v>
@@ -5612,7 +5612,7 @@
         <v>StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="B470" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C470" t="str">
         <v>This association represents any special enrollment characteristics of the student school association</v>
@@ -5623,7 +5623,7 @@
         <v>StudentSchoolAssociationTuitionPayer</v>
       </c>
       <c r="B471" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C471" t="str">
         <v>This association represents the tuition payer codes of the student school association</v>
@@ -5645,7 +5645,7 @@
         <v>StudentSchoolAttendanceEventExtension</v>
       </c>
       <c r="B473" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C473" t="str">
         <v/>
@@ -5689,7 +5689,7 @@
         <v>StudentSectionAssociationExtension</v>
       </c>
       <c r="B477" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C477" t="str">
         <v/>
@@ -5876,7 +5876,7 @@
         <v>Track</v>
       </c>
       <c r="B494" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C494" t="str">
         <v>This represents a calendar track for a school</v>
@@ -5887,7 +5887,7 @@
         <v>TrackEventDescriptor</v>
       </c>
       <c r="B495" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C495" t="str" xml:space="preserve">
         <v xml:space="preserve">This descriptor defines the types of scheduled or unscheduled event for the day_x000d_
@@ -5900,7 +5900,7 @@
         <v>TrackNumberDescriptor</v>
       </c>
       <c r="B496" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C496" t="str">
         <v>This descriptor defines the allowed track numbers (e.g., 01, 02, 03, 04, 05, 06)</v>
@@ -5922,7 +5922,7 @@
         <v>TuitionPayerDescriptor</v>
       </c>
       <c r="B498" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="C498" t="str">
         <v>This descriptor defines the tuition payer codes</v>
@@ -5957,7 +5957,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Columns"/>
-  <dimension ref="A1:I2380"/>
+  <dimension ref="A1:I2383"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2" t="str">
         <v>AbsenceAmountDescriptor</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B182" t="str">
         <v>CalendarDateTrackEvent</v>
@@ -11328,7 +11328,7 @@
     </row>
     <row r="183" xml:space="preserve">
       <c r="A183" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B183" t="str">
         <v>CalendarDateTrackEvent</v>
@@ -11358,7 +11358,7 @@
     </row>
     <row r="184" xml:space="preserve">
       <c r="A184" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B184" t="str">
         <v>CalendarDateTrackEvent</v>
@@ -11399,7 +11399,7 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B185" t="str">
         <v>CalendarDateTrackEvent</v>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B186" t="str">
         <v>CalendarDateTrackEvent</v>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B187" t="str">
         <v>CalendarDateTrackEvent</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B281" t="str">
         <v>CourseEntryDescriptor</v>
@@ -14212,7 +14212,7 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B282" t="str">
         <v>CourseExitDescriptor</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B313" t="str">
         <v>CourseOfferingCourseSchedule</v>
@@ -15140,7 +15140,7 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B314" t="str">
         <v>CourseOfferingCourseSchedule</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B315" t="str">
         <v>CourseOfferingCourseSchedule</v>
@@ -15198,7 +15198,7 @@
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B316" t="str">
         <v>CourseOfferingCourseSchedule</v>
@@ -15227,7 +15227,7 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B317" t="str">
         <v>CourseOfferingCourseSchedule</v>
@@ -15256,7 +15256,7 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B318" t="str">
         <v>CourseOfferingCourseSchedule</v>
@@ -15430,13 +15430,13 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B324" t="str">
         <v>CourseOfferingExtension</v>
       </c>
       <c r="C324" t="str">
-        <v>EndOfCourseAssessmentCodeTypeDescriptorId</v>
+        <v>EndOfCourseAssessmentCodeDescriptorId</v>
       </c>
       <c r="D324" t="str">
         <v>The end of course assesment code. Submitted for courses that end with Assessment testing</v>
@@ -15459,7 +15459,7 @@
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B325" t="str">
         <v>CourseOfferingExtension</v>
@@ -15488,7 +15488,7 @@
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B326" t="str">
         <v>CourseOfferingExtension</v>
@@ -15517,7 +15517,7 @@
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B327" t="str">
         <v>CourseOfferingExtension</v>
@@ -15546,7 +15546,7 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B328" t="str">
         <v>CourseOfferingExtension</v>
@@ -21628,13 +21628,13 @@
     </row>
     <row r="537">
       <c r="A537" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B537" t="str">
-        <v>EndOfCourseAssessmentCodeTypeDescriptor</v>
+        <v>EndOfCourseAssessmentCodeDescriptor</v>
       </c>
       <c r="C537" t="str">
-        <v>EndOfCourseAssessmentCodeTypeDescriptorId</v>
+        <v>EndOfCourseAssessmentCodeDescriptorId</v>
       </c>
       <c r="D537" t="str">
         <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
@@ -21744,7 +21744,7 @@
     </row>
     <row r="541">
       <c r="A541" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B541" t="str">
         <v>ExitWithdrawReasonDescriptor</v>
@@ -31532,7 +31532,7 @@
     </row>
     <row r="878">
       <c r="A878" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B878" t="str">
         <v>MembershipFTEDescriptor</v>
@@ -31561,7 +31561,7 @@
     </row>
     <row r="879">
       <c r="A879" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B879" t="str">
         <v>MembershipResponsibilityDescriptor</v>
@@ -31590,7 +31590,7 @@
     </row>
     <row r="880">
       <c r="A880" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B880" t="str">
         <v>MembershipTypeDescriptor</v>
@@ -31706,7 +31706,7 @@
     </row>
     <row r="884">
       <c r="A884" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B884" t="str">
         <v>MonthDescriptor</v>
@@ -31822,7 +31822,7 @@
     </row>
     <row r="888">
       <c r="A888" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B888" t="str">
         <v>NumberOfInstructionalDaysInWeekDescriptor</v>
@@ -36446,7 +36446,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1046" t="str">
         <v>PrimaryNightTimeResidenceDescriptor</v>
@@ -41278,7 +41278,7 @@
     </row>
     <row r="1212">
       <c r="A1212" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1212" t="str">
         <v>SectionCourseCharacteristic</v>
@@ -41307,7 +41307,7 @@
     </row>
     <row r="1213">
       <c r="A1213" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1213" t="str">
         <v>SectionCourseCharacteristic</v>
@@ -41336,7 +41336,7 @@
     </row>
     <row r="1214">
       <c r="A1214" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1214" t="str">
         <v>SectionCourseCharacteristic</v>
@@ -41365,7 +41365,7 @@
     </row>
     <row r="1215">
       <c r="A1215" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1215" t="str">
         <v>SectionCourseCharacteristic</v>
@@ -41394,7 +41394,7 @@
     </row>
     <row r="1216">
       <c r="A1216" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1216" t="str">
         <v>SectionCourseCharacteristic</v>
@@ -41423,7 +41423,7 @@
     </row>
     <row r="1217">
       <c r="A1217" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1217" t="str">
         <v>SectionCourseCharacteristic</v>
@@ -41452,7 +41452,7 @@
     </row>
     <row r="1218">
       <c r="A1218" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1218" t="str">
         <v>SectionExtension</v>
@@ -41481,7 +41481,7 @@
     </row>
     <row r="1219">
       <c r="A1219" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1219" t="str">
         <v>SectionExtension</v>
@@ -41510,7 +41510,7 @@
     </row>
     <row r="1220">
       <c r="A1220" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1220" t="str">
         <v>SectionExtension</v>
@@ -41539,7 +41539,7 @@
     </row>
     <row r="1221">
       <c r="A1221" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1221" t="str">
         <v>SectionExtension</v>
@@ -41568,7 +41568,7 @@
     </row>
     <row r="1222">
       <c r="A1222" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1222" t="str">
         <v>SectionExtension</v>
@@ -41597,7 +41597,7 @@
     </row>
     <row r="1223">
       <c r="A1223" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1223" t="str">
         <v>SectionExtension</v>
@@ -41626,7 +41626,7 @@
     </row>
     <row r="1224" xml:space="preserve">
       <c r="A1224" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1224" t="str">
         <v>SectionExtension</v>
@@ -41657,7 +41657,7 @@
     </row>
     <row r="1225">
       <c r="A1225" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1225" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41686,7 +41686,7 @@
     </row>
     <row r="1226" xml:space="preserve">
       <c r="A1226" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1226" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41718,7 +41718,7 @@
     </row>
     <row r="1227">
       <c r="A1227" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1227" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41747,7 +41747,7 @@
     </row>
     <row r="1228" xml:space="preserve">
       <c r="A1228" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1228" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41778,7 +41778,7 @@
     </row>
     <row r="1229">
       <c r="A1229" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1229" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41807,7 +41807,7 @@
     </row>
     <row r="1230" xml:space="preserve">
       <c r="A1230" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1230" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41837,7 +41837,7 @@
     </row>
     <row r="1231" xml:space="preserve">
       <c r="A1231" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1231" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41867,7 +41867,7 @@
     </row>
     <row r="1232">
       <c r="A1232" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1232" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41896,7 +41896,7 @@
     </row>
     <row r="1233">
       <c r="A1233" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1233" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41925,7 +41925,7 @@
     </row>
     <row r="1234">
       <c r="A1234" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1234" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41954,7 +41954,7 @@
     </row>
     <row r="1235">
       <c r="A1235" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1235" t="str">
         <v>SectionExternalProviderTeacher</v>
@@ -41983,7 +41983,7 @@
     </row>
     <row r="1236">
       <c r="A1236" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1236" t="str">
         <v>SectionGradeLevel</v>
@@ -42012,7 +42012,7 @@
     </row>
     <row r="1237">
       <c r="A1237" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1237" t="str">
         <v>SectionGradeLevel</v>
@@ -42041,7 +42041,7 @@
     </row>
     <row r="1238">
       <c r="A1238" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1238" t="str">
         <v>SectionGradeLevel</v>
@@ -42070,7 +42070,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1239" t="str">
         <v>SectionGradeLevel</v>
@@ -42099,7 +42099,7 @@
     </row>
     <row r="1240">
       <c r="A1240" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1240" t="str">
         <v>SectionGradeLevel</v>
@@ -42128,7 +42128,7 @@
     </row>
     <row r="1241">
       <c r="A1241" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1241" t="str">
         <v>SectionGradeLevel</v>
@@ -42795,7 +42795,7 @@
     </row>
     <row r="1264">
       <c r="A1264" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1264" t="str">
         <v>SessionExtension</v>
@@ -42824,7 +42824,7 @@
     </row>
     <row r="1265">
       <c r="A1265" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1265" t="str">
         <v>SessionExtension</v>
@@ -42853,7 +42853,7 @@
     </row>
     <row r="1266">
       <c r="A1266" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1266" t="str">
         <v>SessionExtension</v>
@@ -42882,7 +42882,7 @@
     </row>
     <row r="1267" xml:space="preserve">
       <c r="A1267" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1267" t="str">
         <v>SessionExtension</v>
@@ -43058,7 +43058,7 @@
     </row>
     <row r="1273">
       <c r="A1273" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1273" t="str">
         <v>SessionTypeDescriptor</v>
@@ -43174,7 +43174,7 @@
     </row>
     <row r="1277">
       <c r="A1277" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1277" t="str">
         <v>SpecialEnrollmentDescriptor</v>
@@ -58090,7 +58090,7 @@
     </row>
     <row r="1787">
       <c r="A1787" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1787" t="str">
         <v>StudentDropOutRecoveryProgramAssociation</v>
@@ -58119,7 +58119,7 @@
     </row>
     <row r="1788">
       <c r="A1788" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1788" t="str">
         <v>StudentDropOutRecoveryProgramAssociation</v>
@@ -58148,7 +58148,7 @@
     </row>
     <row r="1789">
       <c r="A1789" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1789" t="str">
         <v>StudentDropOutRecoveryProgramAssociation</v>
@@ -58177,7 +58177,7 @@
     </row>
     <row r="1790">
       <c r="A1790" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1790" t="str">
         <v>StudentDropOutRecoveryProgramAssociation</v>
@@ -58206,7 +58206,7 @@
     </row>
     <row r="1791">
       <c r="A1791" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1791" t="str">
         <v>StudentDropOutRecoveryProgramAssociation</v>
@@ -58235,7 +58235,7 @@
     </row>
     <row r="1792">
       <c r="A1792" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1792" t="str">
         <v>StudentDropOutRecoveryProgramAssociation</v>
@@ -58264,7 +58264,7 @@
     </row>
     <row r="1793" xml:space="preserve">
       <c r="A1793" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1793" t="str">
         <v>StudentDropOutRecoveryProgramAssociation</v>
@@ -58295,7 +58295,7 @@
     </row>
     <row r="1794">
       <c r="A1794" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1794" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -58324,7 +58324,7 @@
     </row>
     <row r="1795">
       <c r="A1795" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1795" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -58353,7 +58353,7 @@
     </row>
     <row r="1796">
       <c r="A1796" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1796" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -58382,7 +58382,7 @@
     </row>
     <row r="1797">
       <c r="A1797" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1797" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -58411,7 +58411,7 @@
     </row>
     <row r="1798">
       <c r="A1798" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1798" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -58440,7 +58440,7 @@
     </row>
     <row r="1799">
       <c r="A1799" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1799" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -58469,7 +58469,7 @@
     </row>
     <row r="1800" xml:space="preserve">
       <c r="A1800" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1800" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -58499,7 +58499,7 @@
     </row>
     <row r="1801" xml:space="preserve">
       <c r="A1801" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1801" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -58533,7 +58533,7 @@
     </row>
     <row r="1802">
       <c r="A1802" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1802" t="str">
         <v>StudentDropOutRecoveryProgramMonthlyUpdate</v>
@@ -62019,7 +62019,7 @@
     </row>
     <row r="1922">
       <c r="A1922" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1922" t="str">
         <v>StudentExtension</v>
@@ -62048,7 +62048,7 @@
     </row>
     <row r="1923" xml:space="preserve">
       <c r="A1923" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B1923" t="str">
         <v>StudentExtension</v>
@@ -66607,7 +66607,7 @@
     </row>
     <row r="2080">
       <c r="A2080" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2080" t="str">
         <v>StudentNeed</v>
@@ -66636,7 +66636,7 @@
     </row>
     <row r="2081" xml:space="preserve">
       <c r="A2081" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2081" t="str">
         <v>StudentNeed</v>
@@ -66666,7 +66666,7 @@
     </row>
     <row r="2082">
       <c r="A2082" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2082" t="str">
         <v>StudentNeed</v>
@@ -66695,7 +66695,7 @@
     </row>
     <row r="2083">
       <c r="A2083" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2083" t="str">
         <v>StudentNeed</v>
@@ -66724,7 +66724,7 @@
     </row>
     <row r="2084">
       <c r="A2084" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2084" t="str">
         <v>StudentNeed</v>
@@ -66753,7 +66753,7 @@
     </row>
     <row r="2085">
       <c r="A2085" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2085" t="str">
         <v>StudentNeed</v>
@@ -66782,7 +66782,7 @@
     </row>
     <row r="2086">
       <c r="A2086" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2086" t="str">
         <v>StudentNeed</v>
@@ -66811,7 +66811,7 @@
     </row>
     <row r="2087">
       <c r="A2087" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2087" t="str">
         <v>StudentNeedCategoryDescriptor</v>
@@ -66840,7 +66840,7 @@
     </row>
     <row r="2088">
       <c r="A2088" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2088" t="str">
         <v>StudentNeedDescriptor</v>
@@ -66869,7 +66869,7 @@
     </row>
     <row r="2089">
       <c r="A2089" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2089" t="str">
         <v>StudentNeedDescriptor</v>
@@ -68904,7 +68904,7 @@
     </row>
     <row r="2159">
       <c r="A2159" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2159" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -68933,7 +68933,7 @@
     </row>
     <row r="2160">
       <c r="A2160" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2160" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -68962,7 +68962,7 @@
     </row>
     <row r="2161" xml:space="preserve">
       <c r="A2161" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2161" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -68995,7 +68995,7 @@
     </row>
     <row r="2162">
       <c r="A2162" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2162" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -69024,7 +69024,7 @@
     </row>
     <row r="2163">
       <c r="A2163" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2163" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -69053,7 +69053,7 @@
     </row>
     <row r="2164">
       <c r="A2164" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2164" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -69082,7 +69082,7 @@
     </row>
     <row r="2165">
       <c r="A2165" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2165" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -69111,7 +69111,7 @@
     </row>
     <row r="2166">
       <c r="A2166" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2166" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -69140,7 +69140,7 @@
     </row>
     <row r="2167">
       <c r="A2167" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2167" t="str">
         <v>StudentProgramAttendanceEventTimeLog</v>
@@ -69836,7 +69836,7 @@
     </row>
     <row r="2191">
       <c r="A2191" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2191" t="str">
         <v>StudentSchoolAssociationExtension</v>
@@ -69865,7 +69865,7 @@
     </row>
     <row r="2192" xml:space="preserve">
       <c r="A2192" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2192" t="str">
         <v>StudentSchoolAssociationExtension</v>
@@ -69897,7 +69897,7 @@
     </row>
     <row r="2193" xml:space="preserve">
       <c r="A2193" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2193" t="str">
         <v>StudentSchoolAssociationExtension</v>
@@ -69929,7 +69929,7 @@
     </row>
     <row r="2194">
       <c r="A2194" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2194" t="str">
         <v>StudentSchoolAssociationExtension</v>
@@ -69958,7 +69958,7 @@
     </row>
     <row r="2195">
       <c r="A2195" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2195" t="str">
         <v>StudentSchoolAssociationExtension</v>
@@ -69987,7 +69987,7 @@
     </row>
     <row r="2196">
       <c r="A2196" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2196" t="str">
         <v>StudentSchoolAssociationExtension</v>
@@ -70016,7 +70016,7 @@
     </row>
     <row r="2197">
       <c r="A2197" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2197" t="str">
         <v>StudentSchoolAssociationExtension</v>
@@ -70045,7 +70045,7 @@
     </row>
     <row r="2198">
       <c r="A2198" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2198" t="str">
         <v>StudentSchoolAssociationExtension</v>
@@ -70074,7 +70074,7 @@
     </row>
     <row r="2199">
       <c r="A2199" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2199" t="str">
         <v>StudentSchoolAssociationLocalEducationAgency</v>
@@ -70103,7 +70103,7 @@
     </row>
     <row r="2200">
       <c r="A2200" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2200" t="str">
         <v>StudentSchoolAssociationLocalEducationAgency</v>
@@ -70132,7 +70132,7 @@
     </row>
     <row r="2201">
       <c r="A2201" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2201" t="str">
         <v>StudentSchoolAssociationLocalEducationAgency</v>
@@ -70161,7 +70161,7 @@
     </row>
     <row r="2202">
       <c r="A2202" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2202" t="str">
         <v>StudentSchoolAssociationLocalEducationAgency</v>
@@ -70190,7 +70190,7 @@
     </row>
     <row r="2203">
       <c r="A2203" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2203" t="str">
         <v>StudentSchoolAssociationLocalEducationAgency</v>
@@ -70219,7 +70219,7 @@
     </row>
     <row r="2204">
       <c r="A2204" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2204" t="str">
         <v>StudentSchoolAssociationLocalEducationAgency</v>
@@ -70248,7 +70248,7 @@
     </row>
     <row r="2205">
       <c r="A2205" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2205" t="str">
         <v>StudentSchoolAssociationLocalEducationAgency</v>
@@ -70277,57 +70277,57 @@
     </row>
     <row r="2206">
       <c r="A2206" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2206" t="str">
         <v>StudentSchoolAssociationMembershipFTE</v>
       </c>
       <c r="C2206" t="str">
-        <v>FTEEndDate</v>
+        <v>EntryDate</v>
       </c>
       <c r="D2206" t="str">
-        <v>The end date for the StudentSchoolAssociationMembership</v>
+        <v>The month, day, and year on which an individual enters and begins to receive instructional services in a school.</v>
       </c>
       <c r="E2206" t="str">
         <v>[DATE]</v>
       </c>
       <c r="F2206" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2206" t="str">
         <v>No</v>
       </c>
       <c r="H2206" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2206" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2207" t="str">
         <v>StudentSchoolAssociationMembershipFTE</v>
       </c>
       <c r="C2207" t="str">
-        <v>FTEStartDate</v>
+        <v>FTEEndDate</v>
       </c>
       <c r="D2207" t="str">
-        <v>The start date for the StudentSchoolAssociationMembership</v>
+        <v>The end date for the StudentSchoolAssociationMembership</v>
       </c>
       <c r="E2207" t="str">
         <v>[DATE]</v>
       </c>
       <c r="F2207" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2207" t="str">
         <v>No</v>
       </c>
       <c r="H2207" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2207" t="str">
         <v>No</v>
@@ -70335,19 +70335,19 @@
     </row>
     <row r="2208">
       <c r="A2208" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2208" t="str">
         <v>StudentSchoolAssociationMembershipFTE</v>
       </c>
       <c r="C2208" t="str">
-        <v>MembershipFTEDescriptorId</v>
+        <v>FTEStartDate</v>
       </c>
       <c r="D2208" t="str">
-        <v>The membership full-time equivalency descriptor</v>
+        <v>The start date for the StudentSchoolAssociationMembership</v>
       </c>
       <c r="E2208" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2208" t="str">
         <v>NOT NULL</v>
@@ -70356,27 +70356,27 @@
         <v>No</v>
       </c>
       <c r="H2208" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2208" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2209" t="str">
-        <v>StudentSchoolAssociationSpecialEnrollment</v>
+        <v>StudentSchoolAssociationMembershipFTE</v>
       </c>
       <c r="C2209" t="str">
-        <v>EntryDate</v>
+        <v>MembershipFTEDescriptorId</v>
       </c>
       <c r="D2209" t="str">
-        <v>The month, day, and year on which an individual enters and begins to receive instructional services in a school.</v>
+        <v>The membership full-time equivalency descriptor</v>
       </c>
       <c r="E2209" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2209" t="str">
         <v>NOT NULL</v>
@@ -70385,7 +70385,7 @@
         <v>No</v>
       </c>
       <c r="H2209" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2209" t="str">
         <v>Yes</v>
@@ -70393,10 +70393,10 @@
     </row>
     <row r="2210">
       <c r="A2210" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2210" t="str">
-        <v>StudentSchoolAssociationSpecialEnrollment</v>
+        <v>StudentSchoolAssociationMembershipFTE</v>
       </c>
       <c r="C2210" t="str">
         <v>SchoolId</v>
@@ -70422,16 +70422,16 @@
     </row>
     <row r="2211">
       <c r="A2211" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2211" t="str">
-        <v>StudentSchoolAssociationSpecialEnrollment</v>
+        <v>StudentSchoolAssociationMembershipFTE</v>
       </c>
       <c r="C2211" t="str">
-        <v>SpecialEnrollmentDescriptorId</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2211" t="str">
-        <v>The special enrollment descriptor</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2211" t="str">
         <v>[INT]</v>
@@ -70443,7 +70443,7 @@
         <v>No</v>
       </c>
       <c r="H2211" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2211" t="str">
         <v>Yes</v>
@@ -70451,48 +70451,48 @@
     </row>
     <row r="2212">
       <c r="A2212" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2212" t="str">
         <v>StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="C2212" t="str">
-        <v>SpecialEnrollmentEndDate</v>
+        <v>EntryDate</v>
       </c>
       <c r="D2212" t="str">
-        <v>The end date for the StudentSchoolAssociationSpecialEnrollment</v>
+        <v>The month, day, and year on which an individual enters and begins to receive instructional services in a school.</v>
       </c>
       <c r="E2212" t="str">
         <v>[DATE]</v>
       </c>
       <c r="F2212" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2212" t="str">
         <v>No</v>
       </c>
       <c r="H2212" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2212" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2213" t="str">
         <v>StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="C2213" t="str">
-        <v>SpecialEnrollmentStartDate</v>
+        <v>SchoolId</v>
       </c>
       <c r="D2213" t="str">
-        <v>The start date for the StudentSchoolAssociationSpecialEnrollment</v>
+        <v>The identifier assigned to a school.</v>
       </c>
       <c r="E2213" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2213" t="str">
         <v>NOT NULL</v>
@@ -70504,21 +70504,21 @@
         <v>Yes</v>
       </c>
       <c r="I2213" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2214" t="str">
         <v>StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="C2214" t="str">
-        <v>StudentUSI</v>
+        <v>SpecialEnrollmentDescriptorId</v>
       </c>
       <c r="D2214" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The special enrollment descriptor</v>
       </c>
       <c r="E2214" t="str">
         <v>[INT]</v>
@@ -70530,7 +70530,7 @@
         <v>No</v>
       </c>
       <c r="H2214" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2214" t="str">
         <v>Yes</v>
@@ -70538,57 +70538,57 @@
     </row>
     <row r="2215">
       <c r="A2215" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2215" t="str">
-        <v>StudentSchoolAssociationTuitionPayer</v>
+        <v>StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="C2215" t="str">
-        <v>EntryDate</v>
+        <v>SpecialEnrollmentEndDate</v>
       </c>
       <c r="D2215" t="str">
-        <v>The month, day, and year on which an individual enters and begins to receive instructional services in a school.</v>
+        <v>The end date for the StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="E2215" t="str">
         <v>[DATE]</v>
       </c>
       <c r="F2215" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2215" t="str">
         <v>No</v>
       </c>
       <c r="H2215" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2215" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2216" t="str">
-        <v>StudentSchoolAssociationTuitionPayer</v>
+        <v>StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="C2216" t="str">
-        <v>PayerEndDate</v>
+        <v>SpecialEnrollmentStartDate</v>
       </c>
       <c r="D2216" t="str">
-        <v>The end date for the StudentSchoolAssociationTuitionPayer</v>
+        <v>The start date for the StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="E2216" t="str">
         <v>[DATE]</v>
       </c>
       <c r="F2216" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2216" t="str">
         <v>No</v>
       </c>
       <c r="H2216" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2216" t="str">
         <v>No</v>
@@ -70596,19 +70596,19 @@
     </row>
     <row r="2217">
       <c r="A2217" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2217" t="str">
-        <v>StudentSchoolAssociationTuitionPayer</v>
+        <v>StudentSchoolAssociationSpecialEnrollment</v>
       </c>
       <c r="C2217" t="str">
-        <v>PayerStartDate</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2217" t="str">
-        <v>The start date for the StudentSchoolAssociationTuitionPayer</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2217" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2217" t="str">
         <v>NOT NULL</v>
@@ -70620,24 +70620,24 @@
         <v>Yes</v>
       </c>
       <c r="I2217" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2218" t="str">
         <v>StudentSchoolAssociationTuitionPayer</v>
       </c>
       <c r="C2218" t="str">
-        <v>SchoolId</v>
+        <v>EntryDate</v>
       </c>
       <c r="D2218" t="str">
-        <v>The identifier assigned to a school.</v>
+        <v>The month, day, and year on which an individual enters and begins to receive instructional services in a school.</v>
       </c>
       <c r="E2218" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2218" t="str">
         <v>NOT NULL</v>
@@ -70654,168 +70654,168 @@
     </row>
     <row r="2219">
       <c r="A2219" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2219" t="str">
         <v>StudentSchoolAssociationTuitionPayer</v>
       </c>
       <c r="C2219" t="str">
-        <v>StudentUSI</v>
+        <v>PayerEndDate</v>
       </c>
       <c r="D2219" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The end date for the StudentSchoolAssociationTuitionPayer</v>
       </c>
       <c r="E2219" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2219" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2219" t="str">
         <v>No</v>
       </c>
       <c r="H2219" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2219" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2220" t="str">
         <v>StudentSchoolAssociationTuitionPayer</v>
       </c>
       <c r="C2220" t="str">
+        <v>PayerStartDate</v>
+      </c>
+      <c r="D2220" t="str">
+        <v>The start date for the StudentSchoolAssociationTuitionPayer</v>
+      </c>
+      <c r="E2220" t="str">
+        <v>[DATE]</v>
+      </c>
+      <c r="F2220" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2220" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2220" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2220" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2221" t="str">
+        <v>StudentSchoolAssociationTuitionPayer</v>
+      </c>
+      <c r="C2221" t="str">
+        <v>SchoolId</v>
+      </c>
+      <c r="D2221" t="str">
+        <v>The identifier assigned to a school.</v>
+      </c>
+      <c r="E2221" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2221" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2221" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2221" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2221" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2222" t="str">
+        <v>StudentSchoolAssociationTuitionPayer</v>
+      </c>
+      <c r="C2222" t="str">
+        <v>StudentUSI</v>
+      </c>
+      <c r="D2222" t="str">
+        <v>A unique alphanumeric code assigned to a student.</v>
+      </c>
+      <c r="E2222" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2222" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2222" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2222" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2222" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2223" t="str">
+        <v>StudentSchoolAssociationTuitionPayer</v>
+      </c>
+      <c r="C2223" t="str">
         <v>TuitionPayerDescriptorId</v>
       </c>
-      <c r="D2220" t="str">
+      <c r="D2223" t="str">
         <v>The Tuition Payer descriptor</v>
       </c>
-      <c r="E2220" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2220" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2220" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2220" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2220" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2221" xml:space="preserve">
-      <c r="A2221" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2221" t="str">
+      <c r="E2223" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2223" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2223" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2223" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2223" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2224" xml:space="preserve">
+      <c r="A2224" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2224" t="str">
         <v>StudentSchoolAttendanceEvent</v>
       </c>
-      <c r="C2221" t="str">
+      <c r="C2224" t="str">
         <v>AttendanceEventCategoryDescriptorId</v>
       </c>
-      <c r="D2221" t="str" xml:space="preserve">
+      <c r="D2224" t="str" xml:space="preserve">
         <v xml:space="preserve">A code describing the attendance event, for example:_x000d_
         Present_x000d_
         Unexcused absence_x000d_
         Excused absence_x000d_
         Tardy.</v>
       </c>
-      <c r="E2221" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2221" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2221" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2221" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2221" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2222">
-      <c r="A2222" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2222" t="str">
-        <v>StudentSchoolAttendanceEvent</v>
-      </c>
-      <c r="C2222" t="str">
-        <v>AttendanceEventReason</v>
-      </c>
-      <c r="D2222" t="str">
-        <v>The reported reason for a student's absence.</v>
-      </c>
-      <c r="E2222" t="str">
-        <v>[NVARCHAR](40)</v>
-      </c>
-      <c r="F2222" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2222" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2222" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2222" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2223">
-      <c r="A2223" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2223" t="str">
-        <v>StudentSchoolAttendanceEvent</v>
-      </c>
-      <c r="C2223" t="str">
-        <v>EducationalEnvironmentDescriptorId</v>
-      </c>
-      <c r="D2223" t="str">
-        <v>The setting in which a child receives education and related services. This attribute is only used if it differs from the EducationalEnvironment of the Section. This is only used in the AttendanceEvent if different from the associated Section.</v>
-      </c>
-      <c r="E2223" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2223" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2223" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2223" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2223" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2224">
-      <c r="A2224" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2224" t="str">
-        <v>StudentSchoolAttendanceEvent</v>
-      </c>
-      <c r="C2224" t="str">
-        <v>EventDate</v>
-      </c>
-      <c r="D2224" t="str">
-        <v>Date for this attendance event.</v>
-      </c>
       <c r="E2224" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2224" t="str">
         <v>NOT NULL</v>
@@ -70827,7 +70827,7 @@
         <v>Yes</v>
       </c>
       <c r="I2224" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2225">
@@ -70838,13 +70838,13 @@
         <v>StudentSchoolAttendanceEvent</v>
       </c>
       <c r="C2225" t="str">
-        <v>EventDuration</v>
+        <v>AttendanceEventReason</v>
       </c>
       <c r="D2225" t="str">
-        <v>The amount of time for the event as recognized by the school: 1 day = 1, 1/2 day = 0.5, 1/3 day = 0.33.</v>
+        <v>The reported reason for a student's absence.</v>
       </c>
       <c r="E2225" t="str">
-        <v>[DECIMAL](3, 2)</v>
+        <v>[NVARCHAR](40)</v>
       </c>
       <c r="F2225" t="str">
         <v>NULL</v>
@@ -70867,22 +70867,22 @@
         <v>StudentSchoolAttendanceEvent</v>
       </c>
       <c r="C2226" t="str">
-        <v>SchoolId</v>
+        <v>EducationalEnvironmentDescriptorId</v>
       </c>
       <c r="D2226" t="str">
-        <v>The identifier assigned to a school.</v>
+        <v>The setting in which a child receives education and related services. This attribute is only used if it differs from the EducationalEnvironment of the Section. This is only used in the AttendanceEvent if different from the associated Section.</v>
       </c>
       <c r="E2226" t="str">
         <v>[INT]</v>
       </c>
       <c r="F2226" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2226" t="str">
         <v>No</v>
       </c>
       <c r="H2226" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2226" t="str">
         <v>Yes</v>
@@ -70896,13 +70896,13 @@
         <v>StudentSchoolAttendanceEvent</v>
       </c>
       <c r="C2227" t="str">
-        <v>SchoolYear</v>
+        <v>EventDate</v>
       </c>
       <c r="D2227" t="str">
-        <v>The identifier for the school year.</v>
+        <v>Date for this attendance event.</v>
       </c>
       <c r="E2227" t="str">
-        <v>[SMALLINT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2227" t="str">
         <v>NOT NULL</v>
@@ -70914,7 +70914,7 @@
         <v>Yes</v>
       </c>
       <c r="I2227" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2228">
@@ -70925,25 +70925,25 @@
         <v>StudentSchoolAttendanceEvent</v>
       </c>
       <c r="C2228" t="str">
-        <v>SessionName</v>
+        <v>EventDuration</v>
       </c>
       <c r="D2228" t="str">
-        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
+        <v>The amount of time for the event as recognized by the school: 1 day = 1, 1/2 day = 0.5, 1/3 day = 0.33.</v>
       </c>
       <c r="E2228" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[DECIMAL](3, 2)</v>
       </c>
       <c r="F2228" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2228" t="str">
         <v>No</v>
       </c>
       <c r="H2228" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2228" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2229">
@@ -70954,10 +70954,10 @@
         <v>StudentSchoolAttendanceEvent</v>
       </c>
       <c r="C2229" t="str">
-        <v>StudentUSI</v>
+        <v>SchoolId</v>
       </c>
       <c r="D2229" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The identifier assigned to a school.</v>
       </c>
       <c r="E2229" t="str">
         <v>[INT]</v>
@@ -70977,137 +70977,137 @@
     </row>
     <row r="2230">
       <c r="A2230" t="str">
-        <v>az</v>
+        <v>edfi</v>
       </c>
       <c r="B2230" t="str">
+        <v>StudentSchoolAttendanceEvent</v>
+      </c>
+      <c r="C2230" t="str">
+        <v>SchoolYear</v>
+      </c>
+      <c r="D2230" t="str">
+        <v>The identifier for the school year.</v>
+      </c>
+      <c r="E2230" t="str">
+        <v>[SMALLINT]</v>
+      </c>
+      <c r="F2230" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2230" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2230" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2230" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2231" t="str">
+        <v>StudentSchoolAttendanceEvent</v>
+      </c>
+      <c r="C2231" t="str">
+        <v>SessionName</v>
+      </c>
+      <c r="D2231" t="str">
+        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
+      </c>
+      <c r="E2231" t="str">
+        <v>[NVARCHAR](60)</v>
+      </c>
+      <c r="F2231" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2231" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2231" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2231" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2232" t="str">
+        <v>StudentSchoolAttendanceEvent</v>
+      </c>
+      <c r="C2232" t="str">
+        <v>StudentUSI</v>
+      </c>
+      <c r="D2232" t="str">
+        <v>A unique alphanumeric code assigned to a student.</v>
+      </c>
+      <c r="E2232" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2232" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2232" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2232" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2232" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2233" t="str">
         <v>StudentSchoolAttendanceEventExtension</v>
       </c>
-      <c r="C2230" t="str">
+      <c r="C2233" t="str">
         <v>AbsenceAmountDescriptorId</v>
       </c>
-      <c r="D2230" t="str">
+      <c r="D2233" t="str">
         <v>Absence Amount descriptor. Absence Amounts must be less than or equal to the  Student Membership FTE, since absences are measured in quarter day increments.</v>
       </c>
-      <c r="E2230" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2230" t="str">
+      <c r="E2233" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2233" t="str">
         <v>NULL</v>
       </c>
-      <c r="G2230" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2230" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2230" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2231" xml:space="preserve">
-      <c r="A2231" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2231" t="str">
+      <c r="G2233" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2233" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2233" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2234" xml:space="preserve">
+      <c r="A2234" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2234" t="str">
         <v>StudentSchoolAttendanceEventExtension</v>
       </c>
-      <c r="C2231" t="str">
+      <c r="C2234" t="str">
         <v>AttendanceEventCategoryDescriptorId</v>
       </c>
-      <c r="D2231" t="str" xml:space="preserve">
+      <c r="D2234" t="str" xml:space="preserve">
         <v xml:space="preserve">A code describing the attendance event, for example:_x000d_
         Present_x000d_
         Unexcused absence_x000d_
         Excused absence_x000d_
         Tardy.</v>
       </c>
-      <c r="E2231" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2231" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2231" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2231" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2231" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2232">
-      <c r="A2232" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2232" t="str">
-        <v>StudentSchoolAttendanceEventExtension</v>
-      </c>
-      <c r="C2232" t="str">
-        <v>EventDate</v>
-      </c>
-      <c r="D2232" t="str">
-        <v>Date for this attendance event.</v>
-      </c>
-      <c r="E2232" t="str">
-        <v>[DATE]</v>
-      </c>
-      <c r="F2232" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2232" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2232" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2232" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2233">
-      <c r="A2233" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2233" t="str">
-        <v>StudentSchoolAttendanceEventExtension</v>
-      </c>
-      <c r="C2233" t="str">
-        <v>InstructionalMinutes</v>
-      </c>
-      <c r="D2233" t="str">
-        <v>The amount of time, in minutes, that the student received instruction during the reported attendance period and the 'In Attendance' code is used</v>
-      </c>
-      <c r="E2233" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2233" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2233" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2233" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2233" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2234">
-      <c r="A2234" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2234" t="str">
-        <v>StudentSchoolAttendanceEventExtension</v>
-      </c>
-      <c r="C2234" t="str">
-        <v>SchoolId</v>
-      </c>
-      <c r="D2234" t="str">
-        <v>The identifier assigned to a school.</v>
-      </c>
       <c r="E2234" t="str">
         <v>[INT]</v>
       </c>
@@ -71126,19 +71126,19 @@
     </row>
     <row r="2235">
       <c r="A2235" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2235" t="str">
         <v>StudentSchoolAttendanceEventExtension</v>
       </c>
       <c r="C2235" t="str">
-        <v>SchoolYear</v>
+        <v>EventDate</v>
       </c>
       <c r="D2235" t="str">
-        <v>The identifier for the school year.</v>
+        <v>Date for this attendance event.</v>
       </c>
       <c r="E2235" t="str">
-        <v>[SMALLINT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2235" t="str">
         <v>NOT NULL</v>
@@ -71155,45 +71155,45 @@
     </row>
     <row r="2236">
       <c r="A2236" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2236" t="str">
         <v>StudentSchoolAttendanceEventExtension</v>
       </c>
       <c r="C2236" t="str">
-        <v>SessionName</v>
+        <v>InstructionalMinutes</v>
       </c>
       <c r="D2236" t="str">
-        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
+        <v>The amount of time, in minutes, that the student received instruction during the reported attendance period and the 'In Attendance' code is used</v>
       </c>
       <c r="E2236" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2236" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2236" t="str">
         <v>No</v>
       </c>
       <c r="H2236" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2236" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2237" t="str">
         <v>StudentSchoolAttendanceEventExtension</v>
       </c>
       <c r="C2237" t="str">
-        <v>StudentUSI</v>
+        <v>SchoolId</v>
       </c>
       <c r="D2237" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The identifier assigned to a school.</v>
       </c>
       <c r="E2237" t="str">
         <v>[INT]</v>
@@ -71213,19 +71213,19 @@
     </row>
     <row r="2238">
       <c r="A2238" t="str">
-        <v>edfi</v>
+        <v>arizona</v>
       </c>
       <c r="B2238" t="str">
-        <v>StudentSchoolFoodServiceProgramAssociation</v>
+        <v>StudentSchoolAttendanceEventExtension</v>
       </c>
       <c r="C2238" t="str">
-        <v>BeginDate</v>
+        <v>SchoolYear</v>
       </c>
       <c r="D2238" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
+        <v>The identifier for the school year.</v>
       </c>
       <c r="E2238" t="str">
-        <v>[DATE]</v>
+        <v>[SMALLINT]</v>
       </c>
       <c r="F2238" t="str">
         <v>NOT NULL</v>
@@ -71242,45 +71242,45 @@
     </row>
     <row r="2239">
       <c r="A2239" t="str">
-        <v>edfi</v>
+        <v>arizona</v>
       </c>
       <c r="B2239" t="str">
-        <v>StudentSchoolFoodServiceProgramAssociation</v>
+        <v>StudentSchoolAttendanceEventExtension</v>
       </c>
       <c r="C2239" t="str">
-        <v>DirectCertification</v>
+        <v>SessionName</v>
       </c>
       <c r="D2239" t="str">
-        <v>Indicates that the student's National School Lunch Program (NSLP) eligibility has been determined through direct certification.</v>
+        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
       </c>
       <c r="E2239" t="str">
-        <v>[BIT]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2239" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2239" t="str">
         <v>No</v>
       </c>
       <c r="H2239" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2239" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="str">
-        <v>edfi</v>
+        <v>arizona</v>
       </c>
       <c r="B2240" t="str">
-        <v>StudentSchoolFoodServiceProgramAssociation</v>
+        <v>StudentSchoolAttendanceEventExtension</v>
       </c>
       <c r="C2240" t="str">
-        <v>EducationOrganizationId</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2240" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2240" t="str">
         <v>[INT]</v>
@@ -71306,13 +71306,13 @@
         <v>StudentSchoolFoodServiceProgramAssociation</v>
       </c>
       <c r="C2241" t="str">
-        <v>ProgramEducationOrganizationId</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2241" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2241" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2241" t="str">
         <v>NOT NULL</v>
@@ -71335,25 +71335,25 @@
         <v>StudentSchoolFoodServiceProgramAssociation</v>
       </c>
       <c r="C2242" t="str">
-        <v>ProgramName</v>
+        <v>DirectCertification</v>
       </c>
       <c r="D2242" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+        <v>Indicates that the student's National School Lunch Program (NSLP) eligibility has been determined through direct certification.</v>
       </c>
       <c r="E2242" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[BIT]</v>
       </c>
       <c r="F2242" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2242" t="str">
         <v>No</v>
       </c>
       <c r="H2242" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2242" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2243">
@@ -71364,10 +71364,10 @@
         <v>StudentSchoolFoodServiceProgramAssociation</v>
       </c>
       <c r="C2243" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2243" t="str">
-        <v>The type of program.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2243" t="str">
         <v>[INT]</v>
@@ -71393,10 +71393,10 @@
         <v>StudentSchoolFoodServiceProgramAssociation</v>
       </c>
       <c r="C2244" t="str">
-        <v>StudentUSI</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2244" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2244" t="str">
         <v>[INT]</v>
@@ -71419,16 +71419,16 @@
         <v>edfi</v>
       </c>
       <c r="B2245" t="str">
-        <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
+        <v>StudentSchoolFoodServiceProgramAssociation</v>
       </c>
       <c r="C2245" t="str">
-        <v>BeginDate</v>
+        <v>ProgramName</v>
       </c>
       <c r="D2245" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
       </c>
       <c r="E2245" t="str">
-        <v>[DATE]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2245" t="str">
         <v>NOT NULL</v>
@@ -71448,13 +71448,13 @@
         <v>edfi</v>
       </c>
       <c r="B2246" t="str">
-        <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
+        <v>StudentSchoolFoodServiceProgramAssociation</v>
       </c>
       <c r="C2246" t="str">
-        <v>EducationOrganizationId</v>
+        <v>ProgramTypeDescriptorId</v>
       </c>
       <c r="D2246" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The type of program.</v>
       </c>
       <c r="E2246" t="str">
         <v>[INT]</v>
@@ -71477,28 +71477,28 @@
         <v>edfi</v>
       </c>
       <c r="B2247" t="str">
-        <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
+        <v>StudentSchoolFoodServiceProgramAssociation</v>
       </c>
       <c r="C2247" t="str">
-        <v>PrimaryIndicator</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2247" t="str">
-        <v>True if service is a primary service.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2247" t="str">
-        <v>[BIT]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2247" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2247" t="str">
         <v>No</v>
       </c>
       <c r="H2247" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2247" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2248">
@@ -71509,13 +71509,13 @@
         <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2248" t="str">
-        <v>ProgramEducationOrganizationId</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2248" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2248" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2248" t="str">
         <v>NOT NULL</v>
@@ -71538,13 +71538,13 @@
         <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2249" t="str">
-        <v>ProgramName</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2249" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2249" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2249" t="str">
         <v>NOT NULL</v>
@@ -71567,25 +71567,25 @@
         <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2250" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>PrimaryIndicator</v>
       </c>
       <c r="D2250" t="str">
-        <v>The type of program.</v>
+        <v>True if service is a primary service.</v>
       </c>
       <c r="E2250" t="str">
-        <v>[INT]</v>
+        <v>[BIT]</v>
       </c>
       <c r="F2250" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2250" t="str">
         <v>No</v>
       </c>
       <c r="H2250" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2250" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2251">
@@ -71596,10 +71596,10 @@
         <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2251" t="str">
-        <v>SchoolFoodServiceProgramServiceDescriptorId</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2251" t="str">
-        <v>Indicates the service being provided to the student by the School Food Service Program.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2251" t="str">
         <v>[INT]</v>
@@ -71625,25 +71625,25 @@
         <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2252" t="str">
-        <v>ServiceBeginDate</v>
+        <v>ProgramName</v>
       </c>
       <c r="D2252" t="str">
-        <v>First date the Student was in this option for the current school year.</v>
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
       </c>
       <c r="E2252" t="str">
-        <v>[DATE]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2252" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2252" t="str">
         <v>No</v>
       </c>
       <c r="H2252" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2252" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2253">
@@ -71654,25 +71654,25 @@
         <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2253" t="str">
-        <v>ServiceEndDate</v>
+        <v>ProgramTypeDescriptorId</v>
       </c>
       <c r="D2253" t="str">
-        <v>Last date the Student was in this option for the current school year.</v>
+        <v>The type of program.</v>
       </c>
       <c r="E2253" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2253" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2253" t="str">
         <v>No</v>
       </c>
       <c r="H2253" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2253" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2254">
@@ -71683,10 +71683,10 @@
         <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2254" t="str">
-        <v>StudentUSI</v>
+        <v>SchoolFoodServiceProgramServiceDescriptorId</v>
       </c>
       <c r="D2254" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>Indicates the service being provided to the student by the School Food Service Program.</v>
       </c>
       <c r="E2254" t="str">
         <v>[INT]</v>
@@ -71709,16 +71709,16 @@
         <v>edfi</v>
       </c>
       <c r="B2255" t="str">
-        <v>StudentSectionAssociation</v>
+        <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2255" t="str">
-        <v>AttemptStatusDescriptorId</v>
+        <v>ServiceBeginDate</v>
       </c>
       <c r="D2255" t="str">
-        <v>An indication of the student's attempt status for the section.</v>
+        <v>First date the Student was in this option for the current school year.</v>
       </c>
       <c r="E2255" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2255" t="str">
         <v>NULL</v>
@@ -71730,7 +71730,7 @@
         <v>No</v>
       </c>
       <c r="I2255" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2256">
@@ -71738,25 +71738,25 @@
         <v>edfi</v>
       </c>
       <c r="B2256" t="str">
-        <v>StudentSectionAssociation</v>
+        <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2256" t="str">
-        <v>BeginDate</v>
+        <v>ServiceEndDate</v>
       </c>
       <c r="D2256" t="str">
-        <v>Month, day, and year of the Student's entry or assignment to the Section.</v>
+        <v>Last date the Student was in this option for the current school year.</v>
       </c>
       <c r="E2256" t="str">
         <v>[DATE]</v>
       </c>
       <c r="F2256" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2256" t="str">
         <v>No</v>
       </c>
       <c r="H2256" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2256" t="str">
         <v>No</v>
@@ -71767,28 +71767,28 @@
         <v>edfi</v>
       </c>
       <c r="B2257" t="str">
-        <v>StudentSectionAssociation</v>
+        <v>StudentSchoolFoodServiceProgramAssociationSchoolFoodServiceProgramService</v>
       </c>
       <c r="C2257" t="str">
-        <v>EndDate</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2257" t="str">
-        <v>Month, day, and year of the withdrawal or exit of the Student from the Section.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2257" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2257" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2257" t="str">
         <v>No</v>
       </c>
       <c r="H2257" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2257" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2258">
@@ -71799,13 +71799,13 @@
         <v>StudentSectionAssociation</v>
       </c>
       <c r="C2258" t="str">
-        <v>HomeroomIndicator</v>
+        <v>AttemptStatusDescriptorId</v>
       </c>
       <c r="D2258" t="str">
-        <v>Indicates the Section is the student's homeroom. Homeroom period may the convention for taking daily attendance.</v>
+        <v>An indication of the student's attempt status for the section.</v>
       </c>
       <c r="E2258" t="str">
-        <v>[BIT]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2258" t="str">
         <v>NULL</v>
@@ -71817,7 +71817,7 @@
         <v>No</v>
       </c>
       <c r="I2258" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2259">
@@ -71828,13 +71828,13 @@
         <v>StudentSectionAssociation</v>
       </c>
       <c r="C2259" t="str">
-        <v>LocalCourseCode</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2259" t="str">
-        <v>The local code assigned by the School that identifies the course offering provided for the instruction of students.</v>
+        <v>Month, day, and year of the Student's entry or assignment to the Section.</v>
       </c>
       <c r="E2259" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2259" t="str">
         <v>NOT NULL</v>
@@ -71846,10 +71846,10 @@
         <v>Yes</v>
       </c>
       <c r="I2259" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2260" xml:space="preserve">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2260">
       <c r="A2260" t="str">
         <v>edfi</v>
       </c>
@@ -71857,113 +71857,113 @@
         <v>StudentSectionAssociation</v>
       </c>
       <c r="C2260" t="str">
+        <v>EndDate</v>
+      </c>
+      <c r="D2260" t="str">
+        <v>Month, day, and year of the withdrawal or exit of the Student from the Section.</v>
+      </c>
+      <c r="E2260" t="str">
+        <v>[DATE]</v>
+      </c>
+      <c r="F2260" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="G2260" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2260" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2260" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2261" t="str">
+        <v>StudentSectionAssociation</v>
+      </c>
+      <c r="C2261" t="str">
+        <v>HomeroomIndicator</v>
+      </c>
+      <c r="D2261" t="str">
+        <v>Indicates the Section is the student's homeroom. Homeroom period may the convention for taking daily attendance.</v>
+      </c>
+      <c r="E2261" t="str">
+        <v>[BIT]</v>
+      </c>
+      <c r="F2261" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="G2261" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2261" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2261" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2262" t="str">
+        <v>StudentSectionAssociation</v>
+      </c>
+      <c r="C2262" t="str">
+        <v>LocalCourseCode</v>
+      </c>
+      <c r="D2262" t="str">
+        <v>The local code assigned by the School that identifies the course offering provided for the instruction of students.</v>
+      </c>
+      <c r="E2262" t="str">
+        <v>[NVARCHAR](60)</v>
+      </c>
+      <c r="F2262" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2262" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2262" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2262" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2263" xml:space="preserve">
+      <c r="A2263" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2263" t="str">
+        <v>StudentSectionAssociation</v>
+      </c>
+      <c r="C2263" t="str">
         <v>RepeatIdentifierDescriptorId</v>
       </c>
-      <c r="D2260" t="str" xml:space="preserve">
+      <c r="D2263" t="str" xml:space="preserve">
         <v xml:space="preserve">An indication as to whether a student has previously taken a given course._x000d_
         Repeated, counted in grade point average_x000d_
         Repeated, not counted in grade point average_x000d_
         Not repeated_x000d_
         Other.</v>
       </c>
-      <c r="E2260" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2260" t="str">
+      <c r="E2263" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2263" t="str">
         <v>NULL</v>
       </c>
-      <c r="G2260" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2260" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2260" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2261">
-      <c r="A2261" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2261" t="str">
-        <v>StudentSectionAssociation</v>
-      </c>
-      <c r="C2261" t="str">
-        <v>SchoolId</v>
-      </c>
-      <c r="D2261" t="str">
-        <v>The identifier assigned to a school.</v>
-      </c>
-      <c r="E2261" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2261" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2261" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2261" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2261" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2262">
-      <c r="A2262" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2262" t="str">
-        <v>StudentSectionAssociation</v>
-      </c>
-      <c r="C2262" t="str">
-        <v>SchoolYear</v>
-      </c>
-      <c r="D2262" t="str">
-        <v>The identifier for the school year.</v>
-      </c>
-      <c r="E2262" t="str">
-        <v>[SMALLINT]</v>
-      </c>
-      <c r="F2262" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2262" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2262" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2262" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2263">
-      <c r="A2263" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2263" t="str">
-        <v>StudentSectionAssociation</v>
-      </c>
-      <c r="C2263" t="str">
-        <v>SectionIdentifier</v>
-      </c>
-      <c r="D2263" t="str">
-        <v>The local identifier assigned to a section.</v>
-      </c>
-      <c r="E2263" t="str">
-        <v>[NVARCHAR](255)</v>
-      </c>
-      <c r="F2263" t="str">
-        <v>NOT NULL</v>
-      </c>
       <c r="G2263" t="str">
         <v>No</v>
       </c>
       <c r="H2263" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2263" t="str">
         <v>Yes</v>
@@ -71977,13 +71977,13 @@
         <v>StudentSectionAssociation</v>
       </c>
       <c r="C2264" t="str">
-        <v>SessionName</v>
+        <v>SchoolId</v>
       </c>
       <c r="D2264" t="str">
-        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
+        <v>The identifier assigned to a school.</v>
       </c>
       <c r="E2264" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2264" t="str">
         <v>NOT NULL</v>
@@ -72006,13 +72006,13 @@
         <v>StudentSectionAssociation</v>
       </c>
       <c r="C2265" t="str">
-        <v>StudentUSI</v>
+        <v>SchoolYear</v>
       </c>
       <c r="D2265" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The identifier for the school year.</v>
       </c>
       <c r="E2265" t="str">
-        <v>[INT]</v>
+        <v>[SMALLINT]</v>
       </c>
       <c r="F2265" t="str">
         <v>NOT NULL</v>
@@ -72035,249 +72035,249 @@
         <v>StudentSectionAssociation</v>
       </c>
       <c r="C2266" t="str">
-        <v>TeacherStudentDataLinkExclusion</v>
+        <v>SectionIdentifier</v>
       </c>
       <c r="D2266" t="str">
-        <v>Indicates that the student-section combination is excluded from calculation of value-added or growth attribution calculations used for a particular teacher evaluation.</v>
+        <v>The local identifier assigned to a section.</v>
       </c>
       <c r="E2266" t="str">
-        <v>[BIT]</v>
+        <v>[NVARCHAR](255)</v>
       </c>
       <c r="F2266" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2266" t="str">
         <v>No</v>
       </c>
       <c r="H2266" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2266" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="str">
-        <v>az</v>
+        <v>edfi</v>
       </c>
       <c r="B2267" t="str">
+        <v>StudentSectionAssociation</v>
+      </c>
+      <c r="C2267" t="str">
+        <v>SessionName</v>
+      </c>
+      <c r="D2267" t="str">
+        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
+      </c>
+      <c r="E2267" t="str">
+        <v>[NVARCHAR](60)</v>
+      </c>
+      <c r="F2267" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2267" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2267" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2267" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2268" t="str">
+        <v>StudentSectionAssociation</v>
+      </c>
+      <c r="C2268" t="str">
+        <v>StudentUSI</v>
+      </c>
+      <c r="D2268" t="str">
+        <v>A unique alphanumeric code assigned to a student.</v>
+      </c>
+      <c r="E2268" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2268" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2268" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2268" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2268" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2269" t="str">
+        <v>StudentSectionAssociation</v>
+      </c>
+      <c r="C2269" t="str">
+        <v>TeacherStudentDataLinkExclusion</v>
+      </c>
+      <c r="D2269" t="str">
+        <v>Indicates that the student-section combination is excluded from calculation of value-added or growth attribution calculations used for a particular teacher evaluation.</v>
+      </c>
+      <c r="E2269" t="str">
+        <v>[BIT]</v>
+      </c>
+      <c r="F2269" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="G2269" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2269" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2269" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2270" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
-      <c r="C2267" t="str">
+      <c r="C2270" t="str">
         <v>BeginDate</v>
       </c>
-      <c r="D2267" t="str">
+      <c r="D2270" t="str">
         <v>Month, day, and year of the Student's entry or assignment to the Section.</v>
       </c>
-      <c r="E2267" t="str">
+      <c r="E2270" t="str">
         <v>[DATE]</v>
       </c>
-      <c r="F2267" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2267" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2267" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2267" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2268" xml:space="preserve">
-      <c r="A2268" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2268" t="str">
+      <c r="F2270" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2270" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2270" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2270" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2271" xml:space="preserve">
+      <c r="A2271" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2271" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
-      <c r="C2268" t="str">
+      <c r="C2271" t="str">
         <v>ConcurrentEnrollment</v>
       </c>
-      <c r="D2268" t="str" xml:space="preserve">
+      <c r="D2271" t="str" xml:space="preserve">
         <v xml:space="preserve">A flag indicating if this student is concurrently enrolled in a_x000d_
                 course that offers concurrent enrollment</v>
       </c>
-      <c r="E2268" t="str">
+      <c r="E2271" t="str">
         <v>[BIT]</v>
       </c>
-      <c r="F2268" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2268" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2268" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2268" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2269" xml:space="preserve">
-      <c r="A2269" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2269" t="str">
+      <c r="F2271" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2271" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2271" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2271" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2272" xml:space="preserve">
+      <c r="A2272" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2272" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
-      <c r="C2269" t="str">
+      <c r="C2272" t="str">
         <v>CourseEntryDescriptorId</v>
       </c>
-      <c r="D2269" t="str" xml:space="preserve">
+      <c r="D2272" t="str" xml:space="preserve">
         <v xml:space="preserve">The way the student entered this course section, either as a new_x000d_
                 enrollee or as a transfer from another section at the same school</v>
       </c>
-      <c r="E2269" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2269" t="str">
+      <c r="E2272" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2272" t="str">
         <v>NULL</v>
       </c>
-      <c r="G2269" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2269" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2269" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2270">
-      <c r="A2270" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2270" t="str">
+      <c r="G2272" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2272" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2272" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2273" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
-      <c r="C2270" t="str">
+      <c r="C2273" t="str">
         <v>CourseExitDescriptorId</v>
       </c>
-      <c r="D2270" t="str">
+      <c r="D2273" t="str">
         <v>The type of exit the student had from this course section</v>
       </c>
-      <c r="E2270" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2270" t="str">
+      <c r="E2273" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2273" t="str">
         <v>NULL</v>
       </c>
-      <c r="G2270" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2270" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2270" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2271" xml:space="preserve">
-      <c r="A2271" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2271" t="str">
+      <c r="G2273" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2273" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2273" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2274" xml:space="preserve">
+      <c r="A2274" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2274" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
-      <c r="C2271" t="str">
+      <c r="C2274" t="str">
         <v>DualCredit</v>
       </c>
-      <c r="D2271" t="str" xml:space="preserve">
+      <c r="D2274" t="str" xml:space="preserve">
         <v xml:space="preserve">A flag indicating if this student is earning Dual Credit in a Dual_x000d_
                 Credit Course.</v>
       </c>
-      <c r="E2271" t="str">
+      <c r="E2274" t="str">
         <v>[BIT]</v>
       </c>
-      <c r="F2271" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2271" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2271" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2271" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2272">
-      <c r="A2272" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2272" t="str">
-        <v>StudentSectionAssociationExtension</v>
-      </c>
-      <c r="C2272" t="str">
-        <v>LocalCourseCode</v>
-      </c>
-      <c r="D2272" t="str">
-        <v>The local code assigned by the School that identifies the course offering provided for the instruction of students.</v>
-      </c>
-      <c r="E2272" t="str">
-        <v>[NVARCHAR](60)</v>
-      </c>
-      <c r="F2272" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2272" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2272" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2272" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2273">
-      <c r="A2273" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2273" t="str">
-        <v>StudentSectionAssociationExtension</v>
-      </c>
-      <c r="C2273" t="str">
-        <v>Note</v>
-      </c>
-      <c r="D2273" t="str">
-        <v>Any Clarifying information for this course section</v>
-      </c>
-      <c r="E2273" t="str">
-        <v>[NVARCHAR](250)</v>
-      </c>
-      <c r="F2273" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2273" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2273" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2273" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2274">
-      <c r="A2274" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2274" t="str">
-        <v>StudentSectionAssociationExtension</v>
-      </c>
-      <c r="C2274" t="str">
-        <v>SchoolId</v>
-      </c>
-      <c r="D2274" t="str">
-        <v>The identifier assigned to a school.</v>
-      </c>
-      <c r="E2274" t="str">
-        <v>[INT]</v>
-      </c>
       <c r="F2274" t="str">
         <v>NOT NULL</v>
       </c>
@@ -72285,27 +72285,27 @@
         <v>No</v>
       </c>
       <c r="H2274" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2274" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2275" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
       <c r="C2275" t="str">
-        <v>SchoolYear</v>
+        <v>LocalCourseCode</v>
       </c>
       <c r="D2275" t="str">
-        <v>The identifier for the school year.</v>
+        <v>The local code assigned by the School that identifies the course offering provided for the instruction of students.</v>
       </c>
       <c r="E2275" t="str">
-        <v>[SMALLINT]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2275" t="str">
         <v>NOT NULL</v>
@@ -72322,48 +72322,48 @@
     </row>
     <row r="2276">
       <c r="A2276" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2276" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
       <c r="C2276" t="str">
-        <v>SectionIdentifier</v>
+        <v>Note</v>
       </c>
       <c r="D2276" t="str">
-        <v>The local identifier assigned to a section.</v>
+        <v>Any Clarifying information for this course section</v>
       </c>
       <c r="E2276" t="str">
-        <v>[NVARCHAR](255)</v>
+        <v>[NVARCHAR](250)</v>
       </c>
       <c r="F2276" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2276" t="str">
         <v>No</v>
       </c>
       <c r="H2276" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2276" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2277" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
       <c r="C2277" t="str">
-        <v>SessionName</v>
+        <v>SchoolId</v>
       </c>
       <c r="D2277" t="str">
-        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
+        <v>The identifier assigned to a school.</v>
       </c>
       <c r="E2277" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2277" t="str">
         <v>NOT NULL</v>
@@ -72380,139 +72380,139 @@
     </row>
     <row r="2278">
       <c r="A2278" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2278" t="str">
         <v>StudentSectionAssociationExtension</v>
       </c>
       <c r="C2278" t="str">
+        <v>SchoolYear</v>
+      </c>
+      <c r="D2278" t="str">
+        <v>The identifier for the school year.</v>
+      </c>
+      <c r="E2278" t="str">
+        <v>[SMALLINT]</v>
+      </c>
+      <c r="F2278" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2278" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2278" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2278" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2279" t="str">
+        <v>StudentSectionAssociationExtension</v>
+      </c>
+      <c r="C2279" t="str">
+        <v>SectionIdentifier</v>
+      </c>
+      <c r="D2279" t="str">
+        <v>The local identifier assigned to a section.</v>
+      </c>
+      <c r="E2279" t="str">
+        <v>[NVARCHAR](255)</v>
+      </c>
+      <c r="F2279" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2279" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2279" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2279" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2280" t="str">
+        <v>StudentSectionAssociationExtension</v>
+      </c>
+      <c r="C2280" t="str">
+        <v>SessionName</v>
+      </c>
+      <c r="D2280" t="str">
+        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
+      </c>
+      <c r="E2280" t="str">
+        <v>[NVARCHAR](60)</v>
+      </c>
+      <c r="F2280" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2280" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2280" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2280" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2281" t="str">
+        <v>StudentSectionAssociationExtension</v>
+      </c>
+      <c r="C2281" t="str">
         <v>StudentUSI</v>
       </c>
-      <c r="D2278" t="str">
+      <c r="D2281" t="str">
         <v>A unique alphanumeric code assigned to a student.</v>
       </c>
-      <c r="E2278" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2278" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2278" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2278" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2278" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2279" xml:space="preserve">
-      <c r="A2279" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2279" t="str">
+      <c r="E2281" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2281" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2281" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2281" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2281" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2282" xml:space="preserve">
+      <c r="A2282" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2282" t="str">
         <v>StudentSectionAttendanceEvent</v>
       </c>
-      <c r="C2279" t="str">
+      <c r="C2282" t="str">
         <v>AttendanceEventCategoryDescriptorId</v>
       </c>
-      <c r="D2279" t="str" xml:space="preserve">
+      <c r="D2282" t="str" xml:space="preserve">
         <v xml:space="preserve">A code describing the attendance event, for example:_x000d_
         Present_x000d_
         Unexcused absence_x000d_
         Excused absence_x000d_
         Tardy.</v>
       </c>
-      <c r="E2279" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2279" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2279" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2279" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2279" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2280">
-      <c r="A2280" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2280" t="str">
-        <v>StudentSectionAttendanceEvent</v>
-      </c>
-      <c r="C2280" t="str">
-        <v>AttendanceEventReason</v>
-      </c>
-      <c r="D2280" t="str">
-        <v>The reported reason for a student's absence.</v>
-      </c>
-      <c r="E2280" t="str">
-        <v>[NVARCHAR](40)</v>
-      </c>
-      <c r="F2280" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2280" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2280" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2280" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2281">
-      <c r="A2281" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2281" t="str">
-        <v>StudentSectionAttendanceEvent</v>
-      </c>
-      <c r="C2281" t="str">
-        <v>EducationalEnvironmentDescriptorId</v>
-      </c>
-      <c r="D2281" t="str">
-        <v>The setting in which a child receives education and related services. This attribute is only used if it differs from the EducationalEnvironment of the Section. This is only used in the AttendanceEvent if different from the associated Section.</v>
-      </c>
-      <c r="E2281" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2281" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2281" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2281" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2281" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2282">
-      <c r="A2282" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2282" t="str">
-        <v>StudentSectionAttendanceEvent</v>
-      </c>
-      <c r="C2282" t="str">
-        <v>EventDate</v>
-      </c>
-      <c r="D2282" t="str">
-        <v>Date for this attendance event.</v>
-      </c>
       <c r="E2282" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2282" t="str">
         <v>NOT NULL</v>
@@ -72524,7 +72524,7 @@
         <v>Yes</v>
       </c>
       <c r="I2282" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2283">
@@ -72535,13 +72535,13 @@
         <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2283" t="str">
-        <v>EventDuration</v>
+        <v>AttendanceEventReason</v>
       </c>
       <c r="D2283" t="str">
-        <v>The amount of time for the event as recognized by the school: 1 day = 1, 1/2 day = 0.5, 1/3 day = 0.33.</v>
+        <v>The reported reason for a student's absence.</v>
       </c>
       <c r="E2283" t="str">
-        <v>[DECIMAL](3, 2)</v>
+        <v>[NVARCHAR](40)</v>
       </c>
       <c r="F2283" t="str">
         <v>NULL</v>
@@ -72564,22 +72564,22 @@
         <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2284" t="str">
-        <v>LocalCourseCode</v>
+        <v>EducationalEnvironmentDescriptorId</v>
       </c>
       <c r="D2284" t="str">
-        <v>The local code assigned by the School that identifies the course offering provided for the instruction of students.</v>
+        <v>The setting in which a child receives education and related services. This attribute is only used if it differs from the EducationalEnvironment of the Section. This is only used in the AttendanceEvent if different from the associated Section.</v>
       </c>
       <c r="E2284" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2284" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2284" t="str">
         <v>No</v>
       </c>
       <c r="H2284" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2284" t="str">
         <v>Yes</v>
@@ -72593,13 +72593,13 @@
         <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2285" t="str">
-        <v>SchoolId</v>
+        <v>EventDate</v>
       </c>
       <c r="D2285" t="str">
-        <v>The identifier assigned to a school.</v>
+        <v>Date for this attendance event.</v>
       </c>
       <c r="E2285" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2285" t="str">
         <v>NOT NULL</v>
@@ -72611,7 +72611,7 @@
         <v>Yes</v>
       </c>
       <c r="I2285" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2286">
@@ -72622,25 +72622,25 @@
         <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2286" t="str">
-        <v>SchoolYear</v>
+        <v>EventDuration</v>
       </c>
       <c r="D2286" t="str">
-        <v>The identifier for the school year.</v>
+        <v>The amount of time for the event as recognized by the school: 1 day = 1, 1/2 day = 0.5, 1/3 day = 0.33.</v>
       </c>
       <c r="E2286" t="str">
-        <v>[SMALLINT]</v>
+        <v>[DECIMAL](3, 2)</v>
       </c>
       <c r="F2286" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2286" t="str">
         <v>No</v>
       </c>
       <c r="H2286" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2286" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2287">
@@ -72651,13 +72651,13 @@
         <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2287" t="str">
-        <v>SectionIdentifier</v>
+        <v>LocalCourseCode</v>
       </c>
       <c r="D2287" t="str">
-        <v>The local identifier assigned to a section.</v>
+        <v>The local code assigned by the School that identifies the course offering provided for the instruction of students.</v>
       </c>
       <c r="E2287" t="str">
-        <v>[NVARCHAR](255)</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2287" t="str">
         <v>NOT NULL</v>
@@ -72680,13 +72680,13 @@
         <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2288" t="str">
-        <v>SessionName</v>
+        <v>SchoolId</v>
       </c>
       <c r="D2288" t="str">
-        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
+        <v>The identifier assigned to a school.</v>
       </c>
       <c r="E2288" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2288" t="str">
         <v>NOT NULL</v>
@@ -72709,13 +72709,13 @@
         <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2289" t="str">
-        <v>StudentUSI</v>
+        <v>SchoolYear</v>
       </c>
       <c r="D2289" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The identifier for the school year.</v>
       </c>
       <c r="E2289" t="str">
-        <v>[INT]</v>
+        <v>[SMALLINT]</v>
       </c>
       <c r="F2289" t="str">
         <v>NOT NULL</v>
@@ -72735,16 +72735,16 @@
         <v>edfi</v>
       </c>
       <c r="B2290" t="str">
-        <v>StudentSpecialEducationProgramAssociation</v>
+        <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2290" t="str">
-        <v>BeginDate</v>
+        <v>SectionIdentifier</v>
       </c>
       <c r="D2290" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
+        <v>The local identifier assigned to a section.</v>
       </c>
       <c r="E2290" t="str">
-        <v>[DATE]</v>
+        <v>[NVARCHAR](255)</v>
       </c>
       <c r="F2290" t="str">
         <v>NOT NULL</v>
@@ -72764,16 +72764,16 @@
         <v>edfi</v>
       </c>
       <c r="B2291" t="str">
-        <v>StudentSpecialEducationProgramAssociation</v>
+        <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2291" t="str">
-        <v>EducationOrganizationId</v>
+        <v>SessionName</v>
       </c>
       <c r="D2291" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The identifier for the calendar for the academic session (e.g., 2010/11, 2011 Summer).</v>
       </c>
       <c r="E2291" t="str">
-        <v>[INT]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2291" t="str">
         <v>NOT NULL</v>
@@ -72793,28 +72793,28 @@
         <v>edfi</v>
       </c>
       <c r="B2292" t="str">
-        <v>StudentSpecialEducationProgramAssociation</v>
+        <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="C2292" t="str">
-        <v>IEPBeginDate</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2292" t="str">
-        <v>The effective date of the most recent IEP.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2292" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2292" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2292" t="str">
         <v>No</v>
       </c>
       <c r="H2292" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2292" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2293">
@@ -72825,25 +72825,25 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2293" t="str">
-        <v>IEPEndDate</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2293" t="str">
-        <v>The end date of the most recent IEP.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2293" t="str">
         <v>[DATE]</v>
       </c>
       <c r="F2293" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2293" t="str">
         <v>No</v>
       </c>
       <c r="H2293" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2293" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2294">
@@ -72854,25 +72854,25 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2294" t="str">
-        <v>IEPReviewDate</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2294" t="str">
-        <v>The date of the last IEP review.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2294" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2294" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2294" t="str">
         <v>No</v>
       </c>
       <c r="H2294" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2294" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2295">
@@ -72883,13 +72883,13 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2295" t="str">
-        <v>IdeaEligibility</v>
+        <v>IEPBeginDate</v>
       </c>
       <c r="D2295" t="str">
-        <v>Indicator of the eligibility of the student to receive special education services according to the Individuals with Disabilities Education Act (IDEA).</v>
+        <v>The effective date of the most recent IEP.</v>
       </c>
       <c r="E2295" t="str">
-        <v>[BIT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2295" t="str">
         <v>NULL</v>
@@ -72912,10 +72912,10 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2296" t="str">
-        <v>LastEvaluationDate</v>
+        <v>IEPEndDate</v>
       </c>
       <c r="D2296" t="str">
-        <v>The date of the last special education evaluation.</v>
+        <v>The end date of the most recent IEP.</v>
       </c>
       <c r="E2296" t="str">
         <v>[DATE]</v>
@@ -72933,7 +72933,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="2297" xml:space="preserve">
+    <row r="2297">
       <c r="A2297" t="str">
         <v>edfi</v>
       </c>
@@ -72941,9 +72941,96 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2297" t="str">
+        <v>IEPReviewDate</v>
+      </c>
+      <c r="D2297" t="str">
+        <v>The date of the last IEP review.</v>
+      </c>
+      <c r="E2297" t="str">
+        <v>[DATE]</v>
+      </c>
+      <c r="F2297" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="G2297" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2297" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2297" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2298" t="str">
+        <v>StudentSpecialEducationProgramAssociation</v>
+      </c>
+      <c r="C2298" t="str">
+        <v>IdeaEligibility</v>
+      </c>
+      <c r="D2298" t="str">
+        <v>Indicator of the eligibility of the student to receive special education services according to the Individuals with Disabilities Education Act (IDEA).</v>
+      </c>
+      <c r="E2298" t="str">
+        <v>[BIT]</v>
+      </c>
+      <c r="F2298" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="G2298" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2298" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2298" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2299" t="str">
+        <v>StudentSpecialEducationProgramAssociation</v>
+      </c>
+      <c r="C2299" t="str">
+        <v>LastEvaluationDate</v>
+      </c>
+      <c r="D2299" t="str">
+        <v>The date of the last special education evaluation.</v>
+      </c>
+      <c r="E2299" t="str">
+        <v>[DATE]</v>
+      </c>
+      <c r="F2299" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="G2299" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2299" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2299" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2300" xml:space="preserve">
+      <c r="A2300" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2300" t="str">
+        <v>StudentSpecialEducationProgramAssociation</v>
+      </c>
+      <c r="C2300" t="str">
         <v>MedicallyFragile</v>
       </c>
-      <c r="D2297" t="str" xml:space="preserve">
+      <c r="D2300" t="str" xml:space="preserve">
         <v xml:space="preserve">Indicates whether the Student receiving special education and related services is:_x000d_
         1) in the age range of birth to 22 years, and_x000d_
         2) has a serious, ongoing illness or a chronic condition that has lasted or is anticipated to last at least 12 or more months or has required at least one month of hospitalization, and that requires daily, ongoing medical treatments and monitoring by appropriately trained personnel which may include parents or other family members, and_x000d_
@@ -72951,107 +73038,20 @@
         4) lives with ongoing threat to his or her continued well-being._x000d_
         Aligns with federal requirements.</v>
       </c>
-      <c r="E2297" t="str">
+      <c r="E2300" t="str">
         <v>[BIT]</v>
       </c>
-      <c r="F2297" t="str">
+      <c r="F2300" t="str">
         <v>NULL</v>
       </c>
-      <c r="G2297" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2297" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2297" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2298">
-      <c r="A2298" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2298" t="str">
-        <v>StudentSpecialEducationProgramAssociation</v>
-      </c>
-      <c r="C2298" t="str">
-        <v>MultiplyDisabled</v>
-      </c>
-      <c r="D2298" t="str">
-        <v>Indicates whether the Student receiving special education and related services has been designated as multiply disabled by the admission, review, and dismissal committee as aligned with federal requirements.</v>
-      </c>
-      <c r="E2298" t="str">
-        <v>[BIT]</v>
-      </c>
-      <c r="F2298" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="G2298" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2298" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2298" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2299">
-      <c r="A2299" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2299" t="str">
-        <v>StudentSpecialEducationProgramAssociation</v>
-      </c>
-      <c r="C2299" t="str">
-        <v>ProgramEducationOrganizationId</v>
-      </c>
-      <c r="D2299" t="str">
-        <v>The identifier assigned to an education organization.</v>
-      </c>
-      <c r="E2299" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2299" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2299" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2299" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2299" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2300">
-      <c r="A2300" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2300" t="str">
-        <v>StudentSpecialEducationProgramAssociation</v>
-      </c>
-      <c r="C2300" t="str">
-        <v>ProgramName</v>
-      </c>
-      <c r="D2300" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
-      </c>
-      <c r="E2300" t="str">
-        <v>[NVARCHAR](60)</v>
-      </c>
-      <c r="F2300" t="str">
-        <v>NOT NULL</v>
-      </c>
       <c r="G2300" t="str">
         <v>No</v>
       </c>
       <c r="H2300" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2300" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2301">
@@ -73062,25 +73062,25 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2301" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>MultiplyDisabled</v>
       </c>
       <c r="D2301" t="str">
-        <v>The type of program.</v>
+        <v>Indicates whether the Student receiving special education and related services has been designated as multiply disabled by the admission, review, and dismissal committee as aligned with federal requirements.</v>
       </c>
       <c r="E2301" t="str">
-        <v>[INT]</v>
+        <v>[BIT]</v>
       </c>
       <c r="F2301" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2301" t="str">
         <v>No</v>
       </c>
       <c r="H2301" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2301" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2302">
@@ -73091,25 +73091,25 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2302" t="str">
-        <v>SchoolHoursPerWeek</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2302" t="str">
-        <v>Indicate the total number of hours of instructional time per week for the school that the student attends.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2302" t="str">
-        <v>[DECIMAL](5, 2)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2302" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2302" t="str">
         <v>No</v>
       </c>
       <c r="H2302" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2302" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2303">
@@ -73120,25 +73120,25 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2303" t="str">
-        <v>SpecialEducationHoursPerWeek</v>
+        <v>ProgramName</v>
       </c>
       <c r="D2303" t="str">
-        <v>The number of hours per week for special education instruction and therapy.</v>
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
       </c>
       <c r="E2303" t="str">
-        <v>[DECIMAL](5, 2)</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2303" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2303" t="str">
         <v>No</v>
       </c>
       <c r="H2303" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2303" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2304">
@@ -73149,22 +73149,22 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2304" t="str">
-        <v>SpecialEducationSettingDescriptorId</v>
+        <v>ProgramTypeDescriptorId</v>
       </c>
       <c r="D2304" t="str">
-        <v>The major instructional setting (more than 50 percent of a student's special education program).</v>
+        <v>The type of program.</v>
       </c>
       <c r="E2304" t="str">
         <v>[INT]</v>
       </c>
       <c r="F2304" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2304" t="str">
         <v>No</v>
       </c>
       <c r="H2304" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2304" t="str">
         <v>Yes</v>
@@ -73178,25 +73178,25 @@
         <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2305" t="str">
-        <v>StudentUSI</v>
+        <v>SchoolHoursPerWeek</v>
       </c>
       <c r="D2305" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>Indicate the total number of hours of instructional time per week for the school that the student attends.</v>
       </c>
       <c r="E2305" t="str">
-        <v>[INT]</v>
+        <v>[DECIMAL](5, 2)</v>
       </c>
       <c r="F2305" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2305" t="str">
         <v>No</v>
       </c>
       <c r="H2305" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2305" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2306">
@@ -73204,28 +73204,28 @@
         <v>edfi</v>
       </c>
       <c r="B2306" t="str">
-        <v>StudentSpecialEducationProgramAssociationDisability</v>
+        <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2306" t="str">
-        <v>BeginDate</v>
+        <v>SpecialEducationHoursPerWeek</v>
       </c>
       <c r="D2306" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
+        <v>The number of hours per week for special education instruction and therapy.</v>
       </c>
       <c r="E2306" t="str">
-        <v>[DATE]</v>
+        <v>[DECIMAL](5, 2)</v>
       </c>
       <c r="F2306" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2306" t="str">
         <v>No</v>
       </c>
       <c r="H2306" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2306" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2307">
@@ -73233,25 +73233,25 @@
         <v>edfi</v>
       </c>
       <c r="B2307" t="str">
-        <v>StudentSpecialEducationProgramAssociationDisability</v>
+        <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2307" t="str">
-        <v>DisabilityDescriptorId</v>
+        <v>SpecialEducationSettingDescriptorId</v>
       </c>
       <c r="D2307" t="str">
-        <v>A disability category that describes a child's impairment.</v>
+        <v>The major instructional setting (more than 50 percent of a student's special education program).</v>
       </c>
       <c r="E2307" t="str">
         <v>[INT]</v>
       </c>
       <c r="F2307" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2307" t="str">
         <v>No</v>
       </c>
       <c r="H2307" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2307" t="str">
         <v>Yes</v>
@@ -73262,25 +73262,25 @@
         <v>edfi</v>
       </c>
       <c r="B2308" t="str">
-        <v>StudentSpecialEducationProgramAssociationDisability</v>
+        <v>StudentSpecialEducationProgramAssociation</v>
       </c>
       <c r="C2308" t="str">
-        <v>DisabilityDeterminationSourceTypeDescriptorId</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2308" t="str">
-        <v>The source that provided the disability determination.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2308" t="str">
         <v>[INT]</v>
       </c>
       <c r="F2308" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2308" t="str">
         <v>No</v>
       </c>
       <c r="H2308" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2308" t="str">
         <v>Yes</v>
@@ -73294,25 +73294,25 @@
         <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2309" t="str">
-        <v>DisabilityDiagnosis</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2309" t="str">
-        <v>A description of the disability diagnosis.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2309" t="str">
-        <v>[NVARCHAR](80)</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2309" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2309" t="str">
         <v>No</v>
       </c>
       <c r="H2309" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2309" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2310">
@@ -73323,10 +73323,10 @@
         <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2310" t="str">
-        <v>EducationOrganizationId</v>
+        <v>DisabilityDescriptorId</v>
       </c>
       <c r="D2310" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>A disability category that describes a child's impairment.</v>
       </c>
       <c r="E2310" t="str">
         <v>[INT]</v>
@@ -73352,10 +73352,10 @@
         <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2311" t="str">
-        <v>OrderOfDisability</v>
+        <v>DisabilityDeterminationSourceTypeDescriptorId</v>
       </c>
       <c r="D2311" t="str">
-        <v>The order by severity of student's disabilities: 1- Primary, 2 -  Secondary, 3 - Tertiary, etc.</v>
+        <v>The source that provided the disability determination.</v>
       </c>
       <c r="E2311" t="str">
         <v>[INT]</v>
@@ -73370,7 +73370,7 @@
         <v>No</v>
       </c>
       <c r="I2311" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2312">
@@ -73381,25 +73381,25 @@
         <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2312" t="str">
-        <v>ProgramEducationOrganizationId</v>
+        <v>DisabilityDiagnosis</v>
       </c>
       <c r="D2312" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>A description of the disability diagnosis.</v>
       </c>
       <c r="E2312" t="str">
-        <v>[INT]</v>
+        <v>[NVARCHAR](80)</v>
       </c>
       <c r="F2312" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2312" t="str">
         <v>No</v>
       </c>
       <c r="H2312" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2312" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2313">
@@ -73410,13 +73410,13 @@
         <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2313" t="str">
-        <v>ProgramName</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2313" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2313" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2313" t="str">
         <v>NOT NULL</v>
@@ -73439,25 +73439,25 @@
         <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2314" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>OrderOfDisability</v>
       </c>
       <c r="D2314" t="str">
-        <v>The type of program.</v>
+        <v>The order by severity of student's disabilities: 1- Primary, 2 -  Secondary, 3 - Tertiary, etc.</v>
       </c>
       <c r="E2314" t="str">
         <v>[INT]</v>
       </c>
       <c r="F2314" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2314" t="str">
         <v>No</v>
       </c>
       <c r="H2314" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2314" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2315">
@@ -73468,10 +73468,10 @@
         <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2315" t="str">
-        <v>StudentUSI</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2315" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2315" t="str">
         <v>[INT]</v>
@@ -73494,16 +73494,16 @@
         <v>edfi</v>
       </c>
       <c r="B2316" t="str">
-        <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
+        <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2316" t="str">
-        <v>BeginDate</v>
+        <v>ProgramName</v>
       </c>
       <c r="D2316" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
       </c>
       <c r="E2316" t="str">
-        <v>[DATE]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2316" t="str">
         <v>NOT NULL</v>
@@ -73523,13 +73523,13 @@
         <v>edfi</v>
       </c>
       <c r="B2317" t="str">
-        <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
+        <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2317" t="str">
-        <v>DisabilityDescriptorId</v>
+        <v>ProgramTypeDescriptorId</v>
       </c>
       <c r="D2317" t="str">
-        <v>A disability category that describes a child's impairment.</v>
+        <v>The type of program.</v>
       </c>
       <c r="E2317" t="str">
         <v>[INT]</v>
@@ -73552,13 +73552,13 @@
         <v>edfi</v>
       </c>
       <c r="B2318" t="str">
-        <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
+        <v>StudentSpecialEducationProgramAssociationDisability</v>
       </c>
       <c r="C2318" t="str">
-        <v>DisabilityDesignationDescriptorId</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2318" t="str">
-        <v>Whether the disability is IDEA, Section 504, or other disability designation.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2318" t="str">
         <v>[INT]</v>
@@ -73584,13 +73584,13 @@
         <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
       </c>
       <c r="C2319" t="str">
-        <v>EducationOrganizationId</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2319" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2319" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2319" t="str">
         <v>NOT NULL</v>
@@ -73613,10 +73613,10 @@
         <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
       </c>
       <c r="C2320" t="str">
-        <v>ProgramEducationOrganizationId</v>
+        <v>DisabilityDescriptorId</v>
       </c>
       <c r="D2320" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>A disability category that describes a child's impairment.</v>
       </c>
       <c r="E2320" t="str">
         <v>[INT]</v>
@@ -73642,13 +73642,13 @@
         <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
       </c>
       <c r="C2321" t="str">
-        <v>ProgramName</v>
+        <v>DisabilityDesignationDescriptorId</v>
       </c>
       <c r="D2321" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+        <v>Whether the disability is IDEA, Section 504, or other disability designation.</v>
       </c>
       <c r="E2321" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2321" t="str">
         <v>NOT NULL</v>
@@ -73671,10 +73671,10 @@
         <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
       </c>
       <c r="C2322" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2322" t="str">
-        <v>The type of program.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2322" t="str">
         <v>[INT]</v>
@@ -73700,10 +73700,10 @@
         <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
       </c>
       <c r="C2323" t="str">
-        <v>StudentUSI</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2323" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2323" t="str">
         <v>[INT]</v>
@@ -73726,16 +73726,16 @@
         <v>edfi</v>
       </c>
       <c r="B2324" t="str">
-        <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
+        <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
       </c>
       <c r="C2324" t="str">
-        <v>BeginDate</v>
+        <v>ProgramName</v>
       </c>
       <c r="D2324" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
       </c>
       <c r="E2324" t="str">
-        <v>[DATE]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2324" t="str">
         <v>NOT NULL</v>
@@ -73755,13 +73755,13 @@
         <v>edfi</v>
       </c>
       <c r="B2325" t="str">
-        <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
+        <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
       </c>
       <c r="C2325" t="str">
-        <v>EducationOrganizationId</v>
+        <v>ProgramTypeDescriptorId</v>
       </c>
       <c r="D2325" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The type of program.</v>
       </c>
       <c r="E2325" t="str">
         <v>[INT]</v>
@@ -73784,28 +73784,28 @@
         <v>edfi</v>
       </c>
       <c r="B2326" t="str">
-        <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
+        <v>StudentSpecialEducationProgramAssociationDisabilityDesignation</v>
       </c>
       <c r="C2326" t="str">
-        <v>PrimaryProvider</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2326" t="str">
-        <v>Primary ServiceProvider.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2326" t="str">
-        <v>[BIT]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2326" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2326" t="str">
         <v>No</v>
       </c>
       <c r="H2326" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2326" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2327">
@@ -73816,13 +73816,13 @@
         <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
       </c>
       <c r="C2327" t="str">
-        <v>ProgramEducationOrganizationId</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2327" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2327" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2327" t="str">
         <v>NOT NULL</v>
@@ -73845,13 +73845,13 @@
         <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
       </c>
       <c r="C2328" t="str">
-        <v>ProgramName</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2328" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2328" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2328" t="str">
         <v>NOT NULL</v>
@@ -73874,25 +73874,25 @@
         <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
       </c>
       <c r="C2329" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>PrimaryProvider</v>
       </c>
       <c r="D2329" t="str">
-        <v>The type of program.</v>
+        <v>Primary ServiceProvider.</v>
       </c>
       <c r="E2329" t="str">
-        <v>[INT]</v>
+        <v>[BIT]</v>
       </c>
       <c r="F2329" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2329" t="str">
         <v>No</v>
       </c>
       <c r="H2329" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2329" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2330">
@@ -73903,10 +73903,10 @@
         <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
       </c>
       <c r="C2330" t="str">
-        <v>StaffUSI</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2330" t="str">
-        <v>A unique alphanumeric code assigned to a staff.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2330" t="str">
         <v>[INT]</v>
@@ -73932,13 +73932,13 @@
         <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
       </c>
       <c r="C2331" t="str">
-        <v>StudentUSI</v>
+        <v>ProgramName</v>
       </c>
       <c r="D2331" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
       </c>
       <c r="E2331" t="str">
-        <v>[INT]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2331" t="str">
         <v>NOT NULL</v>
@@ -73958,16 +73958,16 @@
         <v>edfi</v>
       </c>
       <c r="B2332" t="str">
-        <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
+        <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
       </c>
       <c r="C2332" t="str">
-        <v>BeginDate</v>
+        <v>ProgramTypeDescriptorId</v>
       </c>
       <c r="D2332" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
+        <v>The type of program.</v>
       </c>
       <c r="E2332" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2332" t="str">
         <v>NOT NULL</v>
@@ -73987,13 +73987,13 @@
         <v>edfi</v>
       </c>
       <c r="B2333" t="str">
-        <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
+        <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
       </c>
       <c r="C2333" t="str">
-        <v>EducationOrganizationId</v>
+        <v>StaffUSI</v>
       </c>
       <c r="D2333" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>A unique alphanumeric code assigned to a staff.</v>
       </c>
       <c r="E2333" t="str">
         <v>[INT]</v>
@@ -74016,28 +74016,28 @@
         <v>edfi</v>
       </c>
       <c r="B2334" t="str">
-        <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
+        <v>StudentSpecialEducationProgramAssociationServiceProvider</v>
       </c>
       <c r="C2334" t="str">
-        <v>PrimaryIndicator</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2334" t="str">
-        <v>True if service is a primary service.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2334" t="str">
-        <v>[BIT]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2334" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2334" t="str">
         <v>No</v>
       </c>
       <c r="H2334" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2334" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2335">
@@ -74048,13 +74048,13 @@
         <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2335" t="str">
-        <v>ProgramEducationOrganizationId</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2335" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2335" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2335" t="str">
         <v>NOT NULL</v>
@@ -74077,13 +74077,13 @@
         <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2336" t="str">
-        <v>ProgramName</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2336" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2336" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2336" t="str">
         <v>NOT NULL</v>
@@ -74106,25 +74106,25 @@
         <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2337" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>PrimaryIndicator</v>
       </c>
       <c r="D2337" t="str">
-        <v>The type of program.</v>
+        <v>True if service is a primary service.</v>
       </c>
       <c r="E2337" t="str">
-        <v>[INT]</v>
+        <v>[BIT]</v>
       </c>
       <c r="F2337" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2337" t="str">
         <v>No</v>
       </c>
       <c r="H2337" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2337" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2338">
@@ -74135,25 +74135,25 @@
         <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2338" t="str">
-        <v>ServiceBeginDate</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2338" t="str">
-        <v>First date the Student was in this option for the current school year.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2338" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2338" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2338" t="str">
         <v>No</v>
       </c>
       <c r="H2338" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2338" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2339">
@@ -74164,25 +74164,25 @@
         <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2339" t="str">
-        <v>ServiceEndDate</v>
+        <v>ProgramName</v>
       </c>
       <c r="D2339" t="str">
-        <v>Last date the Student was in this option for the current school year.</v>
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
       </c>
       <c r="E2339" t="str">
-        <v>[DATE]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2339" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2339" t="str">
         <v>No</v>
       </c>
       <c r="H2339" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2339" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2340">
@@ -74193,10 +74193,10 @@
         <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2340" t="str">
-        <v>SpecialEducationProgramServiceDescriptorId</v>
+        <v>ProgramTypeDescriptorId</v>
       </c>
       <c r="D2340" t="str">
-        <v>Indicates the service being provided to the student by the Special Education Program.</v>
+        <v>The type of program.</v>
       </c>
       <c r="E2340" t="str">
         <v>[INT]</v>
@@ -74222,25 +74222,25 @@
         <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2341" t="str">
-        <v>StudentUSI</v>
+        <v>ServiceBeginDate</v>
       </c>
       <c r="D2341" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>First date the Student was in this option for the current school year.</v>
       </c>
       <c r="E2341" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2341" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2341" t="str">
         <v>No</v>
       </c>
       <c r="H2341" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2341" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2342">
@@ -74248,28 +74248,28 @@
         <v>edfi</v>
       </c>
       <c r="B2342" t="str">
-        <v>StudentTitleIPartAProgramAssociation</v>
+        <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2342" t="str">
-        <v>BeginDate</v>
+        <v>ServiceEndDate</v>
       </c>
       <c r="D2342" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
+        <v>Last date the Student was in this option for the current school year.</v>
       </c>
       <c r="E2342" t="str">
         <v>[DATE]</v>
       </c>
       <c r="F2342" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2342" t="str">
         <v>No</v>
       </c>
       <c r="H2342" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2342" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2343">
@@ -74277,13 +74277,13 @@
         <v>edfi</v>
       </c>
       <c r="B2343" t="str">
-        <v>StudentTitleIPartAProgramAssociation</v>
+        <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2343" t="str">
-        <v>EducationOrganizationId</v>
+        <v>SpecialEducationProgramServiceDescriptorId</v>
       </c>
       <c r="D2343" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>Indicates the service being provided to the student by the Special Education Program.</v>
       </c>
       <c r="E2343" t="str">
         <v>[INT]</v>
@@ -74306,13 +74306,13 @@
         <v>edfi</v>
       </c>
       <c r="B2344" t="str">
-        <v>StudentTitleIPartAProgramAssociation</v>
+        <v>StudentSpecialEducationProgramAssociationSpecialEducationProgramService</v>
       </c>
       <c r="C2344" t="str">
-        <v>ProgramEducationOrganizationId</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2344" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2344" t="str">
         <v>[INT]</v>
@@ -74338,13 +74338,13 @@
         <v>StudentTitleIPartAProgramAssociation</v>
       </c>
       <c r="C2345" t="str">
-        <v>ProgramName</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2345" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2345" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2345" t="str">
         <v>NOT NULL</v>
@@ -74367,10 +74367,10 @@
         <v>StudentTitleIPartAProgramAssociation</v>
       </c>
       <c r="C2346" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2346" t="str">
-        <v>The type of program.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2346" t="str">
         <v>[INT]</v>
@@ -74396,10 +74396,10 @@
         <v>StudentTitleIPartAProgramAssociation</v>
       </c>
       <c r="C2347" t="str">
-        <v>StudentUSI</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2347" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2347" t="str">
         <v>[INT]</v>
@@ -74417,7 +74417,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="2348" xml:space="preserve">
+    <row r="2348">
       <c r="A2348" t="str">
         <v>edfi</v>
       </c>
@@ -74425,107 +74425,107 @@
         <v>StudentTitleIPartAProgramAssociation</v>
       </c>
       <c r="C2348" t="str">
+        <v>ProgramName</v>
+      </c>
+      <c r="D2348" t="str">
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+      </c>
+      <c r="E2348" t="str">
+        <v>[NVARCHAR](60)</v>
+      </c>
+      <c r="F2348" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2348" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2348" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2348" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2349" t="str">
+        <v>StudentTitleIPartAProgramAssociation</v>
+      </c>
+      <c r="C2349" t="str">
+        <v>ProgramTypeDescriptorId</v>
+      </c>
+      <c r="D2349" t="str">
+        <v>The type of program.</v>
+      </c>
+      <c r="E2349" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2349" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2349" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2349" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2349" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2350" t="str">
+        <v>StudentTitleIPartAProgramAssociation</v>
+      </c>
+      <c r="C2350" t="str">
+        <v>StudentUSI</v>
+      </c>
+      <c r="D2350" t="str">
+        <v>A unique alphanumeric code assigned to a student.</v>
+      </c>
+      <c r="E2350" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2350" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2350" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2350" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2350" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2351" xml:space="preserve">
+      <c r="A2351" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2351" t="str">
+        <v>StudentTitleIPartAProgramAssociation</v>
+      </c>
+      <c r="C2351" t="str">
         <v>TitleIPartAParticipantDescriptorId</v>
       </c>
-      <c r="D2348" t="str" xml:space="preserve">
+      <c r="D2351" t="str" xml:space="preserve">
         <v xml:space="preserve">An indication of the type of Title I program, if any, in which the student is participating and by which the student is served:_x000d_
         Public Targeted Assistance Program_x000d_
         Public Schoolwide Program_x000d_
         Private School Students Participating_x000d_
         Local Neglected Program.</v>
       </c>
-      <c r="E2348" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2348" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2348" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2348" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2348" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2349" t="str">
-        <v>StudentTitleIPartAProgramAssociationService</v>
-      </c>
-      <c r="C2349" t="str">
-        <v>BeginDate</v>
-      </c>
-      <c r="D2349" t="str">
-        <v>The month, day, and year on which the Student first received services.</v>
-      </c>
-      <c r="E2349" t="str">
-        <v>[DATE]</v>
-      </c>
-      <c r="F2349" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2349" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2349" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2349" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2350">
-      <c r="A2350" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2350" t="str">
-        <v>StudentTitleIPartAProgramAssociationService</v>
-      </c>
-      <c r="C2350" t="str">
-        <v>EducationOrganizationId</v>
-      </c>
-      <c r="D2350" t="str">
-        <v>The identifier assigned to an education organization.</v>
-      </c>
-      <c r="E2350" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2350" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2350" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2350" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2350" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" t="str">
-        <v>edfi</v>
-      </c>
-      <c r="B2351" t="str">
-        <v>StudentTitleIPartAProgramAssociationService</v>
-      </c>
-      <c r="C2351" t="str">
-        <v>PrimaryIndicator</v>
-      </c>
-      <c r="D2351" t="str">
-        <v>True if service is a primary service.</v>
-      </c>
       <c r="E2351" t="str">
-        <v>[BIT]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2351" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2351" t="str">
         <v>No</v>
@@ -74534,7 +74534,7 @@
         <v>No</v>
       </c>
       <c r="I2351" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2352">
@@ -74545,13 +74545,13 @@
         <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2352" t="str">
-        <v>ProgramEducationOrganizationId</v>
+        <v>BeginDate</v>
       </c>
       <c r="D2352" t="str">
-        <v>The identifier assigned to an education organization.</v>
+        <v>The month, day, and year on which the Student first received services.</v>
       </c>
       <c r="E2352" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2352" t="str">
         <v>NOT NULL</v>
@@ -74574,13 +74574,13 @@
         <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2353" t="str">
-        <v>ProgramName</v>
+        <v>EducationOrganizationId</v>
       </c>
       <c r="D2353" t="str">
-        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2353" t="str">
-        <v>[NVARCHAR](60)</v>
+        <v>[INT]</v>
       </c>
       <c r="F2353" t="str">
         <v>NOT NULL</v>
@@ -74603,25 +74603,25 @@
         <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2354" t="str">
-        <v>ProgramTypeDescriptorId</v>
+        <v>PrimaryIndicator</v>
       </c>
       <c r="D2354" t="str">
-        <v>The type of program.</v>
+        <v>True if service is a primary service.</v>
       </c>
       <c r="E2354" t="str">
-        <v>[INT]</v>
+        <v>[BIT]</v>
       </c>
       <c r="F2354" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2354" t="str">
         <v>No</v>
       </c>
       <c r="H2354" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2354" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2355">
@@ -74632,25 +74632,25 @@
         <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2355" t="str">
-        <v>ServiceBeginDate</v>
+        <v>ProgramEducationOrganizationId</v>
       </c>
       <c r="D2355" t="str">
-        <v>First date the Student was in this option for the current school year.</v>
+        <v>The identifier assigned to an education organization.</v>
       </c>
       <c r="E2355" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2355" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2355" t="str">
         <v>No</v>
       </c>
       <c r="H2355" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2355" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2356">
@@ -74661,13 +74661,13 @@
         <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2356" t="str">
-        <v>ServiceDescriptorId</v>
+        <v>ProgramName</v>
       </c>
       <c r="D2356" t="str">
-        <v>Indicates the Service being provided to the student by the Program.</v>
+        <v>The formal name of the Program of instruction, training, services, or benefits available through federal, state, or local agencies.</v>
       </c>
       <c r="E2356" t="str">
-        <v>[INT]</v>
+        <v>[NVARCHAR](60)</v>
       </c>
       <c r="F2356" t="str">
         <v>NOT NULL</v>
@@ -74690,25 +74690,25 @@
         <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2357" t="str">
-        <v>ServiceEndDate</v>
+        <v>ProgramTypeDescriptorId</v>
       </c>
       <c r="D2357" t="str">
-        <v>Last date the Student was in this option for the current school year.</v>
+        <v>The type of program.</v>
       </c>
       <c r="E2357" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2357" t="str">
-        <v>NULL</v>
+        <v>NOT NULL</v>
       </c>
       <c r="G2357" t="str">
         <v>No</v>
       </c>
       <c r="H2357" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2357" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2358">
@@ -74719,25 +74719,25 @@
         <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2358" t="str">
-        <v>StudentUSI</v>
+        <v>ServiceBeginDate</v>
       </c>
       <c r="D2358" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>First date the Student was in this option for the current school year.</v>
       </c>
       <c r="E2358" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2358" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2358" t="str">
         <v>No</v>
       </c>
       <c r="H2358" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2358" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2359">
@@ -74745,13 +74745,13 @@
         <v>edfi</v>
       </c>
       <c r="B2359" t="str">
-        <v>StudentVisa</v>
+        <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2359" t="str">
-        <v>StudentUSI</v>
+        <v>ServiceDescriptorId</v>
       </c>
       <c r="D2359" t="str">
-        <v>A unique alphanumeric code assigned to a student.</v>
+        <v>Indicates the Service being provided to the student by the Program.</v>
       </c>
       <c r="E2359" t="str">
         <v>[INT]</v>
@@ -74774,28 +74774,28 @@
         <v>edfi</v>
       </c>
       <c r="B2360" t="str">
-        <v>StudentVisa</v>
+        <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2360" t="str">
-        <v>VisaDescriptorId</v>
+        <v>ServiceEndDate</v>
       </c>
       <c r="D2360" t="str">
-        <v>An indicator of a non-US citizen's Visa type.</v>
+        <v>Last date the Student was in this option for the current school year.</v>
       </c>
       <c r="E2360" t="str">
-        <v>[INT]</v>
+        <v>[DATE]</v>
       </c>
       <c r="F2360" t="str">
-        <v>NOT NULL</v>
+        <v>NULL</v>
       </c>
       <c r="G2360" t="str">
         <v>No</v>
       </c>
       <c r="H2360" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2360" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2361">
@@ -74803,13 +74803,13 @@
         <v>edfi</v>
       </c>
       <c r="B2361" t="str">
-        <v>TeachingCredentialBasisDescriptor</v>
+        <v>StudentTitleIPartAProgramAssociationService</v>
       </c>
       <c r="C2361" t="str">
-        <v>TeachingCredentialBasisDescriptorId</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2361" t="str">
-        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2361" t="str">
         <v>[INT]</v>
@@ -74832,13 +74832,13 @@
         <v>edfi</v>
       </c>
       <c r="B2362" t="str">
-        <v>TeachingCredentialDescriptor</v>
+        <v>StudentVisa</v>
       </c>
       <c r="C2362" t="str">
-        <v>TeachingCredentialDescriptorId</v>
+        <v>StudentUSI</v>
       </c>
       <c r="D2362" t="str">
-        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+        <v>A unique alphanumeric code assigned to a student.</v>
       </c>
       <c r="E2362" t="str">
         <v>[INT]</v>
@@ -74861,13 +74861,13 @@
         <v>edfi</v>
       </c>
       <c r="B2363" t="str">
-        <v>TechnicalSkillsAssessmentDescriptor</v>
+        <v>StudentVisa</v>
       </c>
       <c r="C2363" t="str">
-        <v>TechnicalSkillsAssessmentDescriptorId</v>
+        <v>VisaDescriptorId</v>
       </c>
       <c r="D2363" t="str">
-        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+        <v>An indicator of a non-US citizen's Visa type.</v>
       </c>
       <c r="E2363" t="str">
         <v>[INT]</v>
@@ -74890,10 +74890,10 @@
         <v>edfi</v>
       </c>
       <c r="B2364" t="str">
-        <v>TelephoneNumberTypeDescriptor</v>
+        <v>TeachingCredentialBasisDescriptor</v>
       </c>
       <c r="C2364" t="str">
-        <v>TelephoneNumberTypeDescriptorId</v>
+        <v>TeachingCredentialBasisDescriptorId</v>
       </c>
       <c r="D2364" t="str">
         <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
@@ -74919,10 +74919,10 @@
         <v>edfi</v>
       </c>
       <c r="B2365" t="str">
-        <v>TermDescriptor</v>
+        <v>TeachingCredentialDescriptor</v>
       </c>
       <c r="C2365" t="str">
-        <v>TermDescriptorId</v>
+        <v>TeachingCredentialDescriptorId</v>
       </c>
       <c r="D2365" t="str">
         <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
@@ -74948,10 +74948,10 @@
         <v>edfi</v>
       </c>
       <c r="B2366" t="str">
-        <v>TitleIPartAParticipantDescriptor</v>
+        <v>TechnicalSkillsAssessmentDescriptor</v>
       </c>
       <c r="C2366" t="str">
-        <v>TitleIPartAParticipantDescriptorId</v>
+        <v>TechnicalSkillsAssessmentDescriptorId</v>
       </c>
       <c r="D2366" t="str">
         <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
@@ -74977,10 +74977,10 @@
         <v>edfi</v>
       </c>
       <c r="B2367" t="str">
-        <v>TitleIPartASchoolDesignationDescriptor</v>
+        <v>TelephoneNumberTypeDescriptor</v>
       </c>
       <c r="C2367" t="str">
-        <v>TitleIPartASchoolDesignationDescriptorId</v>
+        <v>TelephoneNumberTypeDescriptorId</v>
       </c>
       <c r="D2367" t="str">
         <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
@@ -75003,19 +75003,19 @@
     </row>
     <row r="2368">
       <c r="A2368" t="str">
-        <v>az</v>
+        <v>edfi</v>
       </c>
       <c r="B2368" t="str">
-        <v>Track</v>
+        <v>TermDescriptor</v>
       </c>
       <c r="C2368" t="str">
-        <v>BeginDate</v>
+        <v>TermDescriptorId</v>
       </c>
       <c r="D2368" t="str">
-        <v>The first date of the track</v>
+        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
       </c>
       <c r="E2368" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2368" t="str">
         <v>NOT NULL</v>
@@ -75024,27 +75024,27 @@
         <v>No</v>
       </c>
       <c r="H2368" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2368" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2369">
       <c r="A2369" t="str">
-        <v>az</v>
+        <v>edfi</v>
       </c>
       <c r="B2369" t="str">
-        <v>Track</v>
+        <v>TitleIPartAParticipantDescriptor</v>
       </c>
       <c r="C2369" t="str">
-        <v>EndDate</v>
+        <v>TitleIPartAParticipantDescriptorId</v>
       </c>
       <c r="D2369" t="str">
-        <v>The last date of the track</v>
+        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
       </c>
       <c r="E2369" t="str">
-        <v>[DATE]</v>
+        <v>[INT]</v>
       </c>
       <c r="F2369" t="str">
         <v>NOT NULL</v>
@@ -75053,24 +75053,24 @@
         <v>No</v>
       </c>
       <c r="H2369" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2369" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="str">
-        <v>az</v>
+        <v>edfi</v>
       </c>
       <c r="B2370" t="str">
-        <v>Track</v>
+        <v>TitleIPartASchoolDesignationDescriptor</v>
       </c>
       <c r="C2370" t="str">
-        <v>NumberOfInstructionalDaysInWeekDescriptorId</v>
+        <v>TitleIPartASchoolDesignationDescriptorId</v>
       </c>
       <c r="D2370" t="str">
-        <v>The number of instructional days in a week descriptor (e.g. 3, 4, 5)</v>
+        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
       </c>
       <c r="E2370" t="str">
         <v>[INT]</v>
@@ -75082,113 +75082,113 @@
         <v>No</v>
       </c>
       <c r="H2370" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="I2370" t="str">
         <v>Yes</v>
       </c>
     </row>
-    <row r="2371" xml:space="preserve">
+    <row r="2371">
       <c r="A2371" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2371" t="str">
         <v>Track</v>
       </c>
       <c r="C2371" t="str">
+        <v>BeginDate</v>
+      </c>
+      <c r="D2371" t="str">
+        <v>The first date of the track</v>
+      </c>
+      <c r="E2371" t="str">
+        <v>[DATE]</v>
+      </c>
+      <c r="F2371" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2371" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2371" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2371" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2372" t="str">
+        <v>Track</v>
+      </c>
+      <c r="C2372" t="str">
+        <v>EndDate</v>
+      </c>
+      <c r="D2372" t="str">
+        <v>The last date of the track</v>
+      </c>
+      <c r="E2372" t="str">
+        <v>[DATE]</v>
+      </c>
+      <c r="F2372" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2372" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2372" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2372" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2373" t="str">
+        <v>Track</v>
+      </c>
+      <c r="C2373" t="str">
+        <v>NumberOfInstructionalDaysInWeekDescriptorId</v>
+      </c>
+      <c r="D2373" t="str">
+        <v>The number of instructional days in a week descriptor (e.g. 3, 4, 5)</v>
+      </c>
+      <c r="E2373" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2373" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2373" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2373" t="str">
+        <v>No</v>
+      </c>
+      <c r="I2373" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2374" xml:space="preserve">
+      <c r="A2374" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2374" t="str">
+        <v>Track</v>
+      </c>
+      <c r="C2374" t="str">
         <v>TotalInstructionalDays</v>
       </c>
-      <c r="D2371" t="str" xml:space="preserve">
+      <c r="D2374" t="str" xml:space="preserve">
         <v xml:space="preserve">The total number of instructional days in the school calendar._x000d_
                   National Education Data Model (NEDM): Total Days in Session</v>
       </c>
-      <c r="E2371" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2371" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2371" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2371" t="str">
-        <v>No</v>
-      </c>
-      <c r="I2371" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="2372">
-      <c r="A2372" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2372" t="str">
-        <v>Track</v>
-      </c>
-      <c r="C2372" t="str">
-        <v>TrackLocalEducationAgencyId</v>
-      </c>
-      <c r="D2372" t="str">
-        <v>The identifier assigned to a local education agency.</v>
-      </c>
-      <c r="E2372" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2372" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2372" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2372" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2372" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2373">
-      <c r="A2373" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2373" t="str">
-        <v>Track</v>
-      </c>
-      <c r="C2373" t="str">
-        <v>TrackNumberDescriptorId</v>
-      </c>
-      <c r="D2373" t="str">
-        <v>The track number descriptor (e.g. 01, 02, 03 etc.)</v>
-      </c>
-      <c r="E2373" t="str">
-        <v>[INT]</v>
-      </c>
-      <c r="F2373" t="str">
-        <v>NOT NULL</v>
-      </c>
-      <c r="G2373" t="str">
-        <v>No</v>
-      </c>
-      <c r="H2373" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="I2373" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="2374">
-      <c r="A2374" t="str">
-        <v>az</v>
-      </c>
-      <c r="B2374" t="str">
-        <v>Track</v>
-      </c>
-      <c r="C2374" t="str">
-        <v>TrackSchoolId</v>
-      </c>
-      <c r="D2374" t="str">
-        <v>The identifier assigned to a school.</v>
-      </c>
       <c r="E2374" t="str">
         <v>[INT]</v>
       </c>
@@ -75199,24 +75199,24 @@
         <v>No</v>
       </c>
       <c r="H2374" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="I2374" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2375" t="str">
-        <v>TrackEventDescriptor</v>
+        <v>Track</v>
       </c>
       <c r="C2375" t="str">
-        <v>TrackEventDescriptorId</v>
+        <v>TrackLocalEducationAgencyId</v>
       </c>
       <c r="D2375" t="str">
-        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+        <v>The identifier assigned to a local education agency.</v>
       </c>
       <c r="E2375" t="str">
         <v>[INT]</v>
@@ -75236,16 +75236,16 @@
     </row>
     <row r="2376">
       <c r="A2376" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2376" t="str">
-        <v>TrackNumberDescriptor</v>
+        <v>Track</v>
       </c>
       <c r="C2376" t="str">
         <v>TrackNumberDescriptorId</v>
       </c>
       <c r="D2376" t="str">
-        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+        <v>The track number descriptor (e.g. 01, 02, 03 etc.)</v>
       </c>
       <c r="E2376" t="str">
         <v>[INT]</v>
@@ -75265,16 +75265,16 @@
     </row>
     <row r="2377">
       <c r="A2377" t="str">
-        <v>edfi</v>
+        <v>arizona</v>
       </c>
       <c r="B2377" t="str">
-        <v>TribalAffiliationDescriptor</v>
+        <v>Track</v>
       </c>
       <c r="C2377" t="str">
-        <v>TribalAffiliationDescriptorId</v>
+        <v>TrackSchoolId</v>
       </c>
       <c r="D2377" t="str">
-        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+        <v>The identifier assigned to a school.</v>
       </c>
       <c r="E2377" t="str">
         <v>[INT]</v>
@@ -75294,13 +75294,13 @@
     </row>
     <row r="2378">
       <c r="A2378" t="str">
-        <v>az</v>
+        <v>arizona</v>
       </c>
       <c r="B2378" t="str">
-        <v>TuitionPayerDescriptor</v>
+        <v>TrackEventDescriptor</v>
       </c>
       <c r="C2378" t="str">
-        <v>TuitionPayerDescriptorId</v>
+        <v>TrackEventDescriptorId</v>
       </c>
       <c r="D2378" t="str">
         <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
@@ -75323,13 +75323,13 @@
     </row>
     <row r="2379">
       <c r="A2379" t="str">
-        <v>edfi</v>
+        <v>arizona</v>
       </c>
       <c r="B2379" t="str">
-        <v>VisaDescriptor</v>
+        <v>TrackNumberDescriptor</v>
       </c>
       <c r="C2379" t="str">
-        <v>VisaDescriptorId</v>
+        <v>TrackNumberDescriptorId</v>
       </c>
       <c r="D2379" t="str">
         <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
@@ -75355,10 +75355,10 @@
         <v>edfi</v>
       </c>
       <c r="B2380" t="str">
-        <v>WeaponDescriptor</v>
+        <v>TribalAffiliationDescriptor</v>
       </c>
       <c r="C2380" t="str">
-        <v>WeaponDescriptorId</v>
+        <v>TribalAffiliationDescriptorId</v>
       </c>
       <c r="D2380" t="str">
         <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
@@ -75376,6 +75376,93 @@
         <v>Yes</v>
       </c>
       <c r="I2380" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="str">
+        <v>arizona</v>
+      </c>
+      <c r="B2381" t="str">
+        <v>TuitionPayerDescriptor</v>
+      </c>
+      <c r="C2381" t="str">
+        <v>TuitionPayerDescriptorId</v>
+      </c>
+      <c r="D2381" t="str">
+        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+      </c>
+      <c r="E2381" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2381" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2381" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2381" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2381" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2382" t="str">
+        <v>VisaDescriptor</v>
+      </c>
+      <c r="C2382" t="str">
+        <v>VisaDescriptorId</v>
+      </c>
+      <c r="D2382" t="str">
+        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+      </c>
+      <c r="E2382" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2382" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2382" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2382" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2382" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="str">
+        <v>edfi</v>
+      </c>
+      <c r="B2383" t="str">
+        <v>WeaponDescriptor</v>
+      </c>
+      <c r="C2383" t="str">
+        <v>WeaponDescriptorId</v>
+      </c>
+      <c r="D2383" t="str">
+        <v>A unique identifier used as Primary Key, not derived from business logic, when acting as Foreign Key, references the parent table.</v>
+      </c>
+      <c r="E2383" t="str">
+        <v>[INT]</v>
+      </c>
+      <c r="F2383" t="str">
+        <v>NOT NULL</v>
+      </c>
+      <c r="G2383" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2383" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2383" t="str">
         <v>Yes</v>
       </c>
     </row>
